--- a/Results/Categorization/lda-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/lda-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1906">
   <si>
     <t>id</t>
   </si>
@@ -4036,487 +4036,517 @@
     <t>AMBIENCE|PRICES|FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>PRICES|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|PRICES|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
     <t>PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|FOOD|FOOD|AMBIENCE|SERVICE|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|FOOD|FOOD|AMBIENCE|SERVICE|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
+    <t>FOOD|AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|FOOD|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
@@ -4525,7 +4555,7 @@
     <t>PRICES|PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
+    <t>PRICES|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
     <t>place|like</t>
@@ -4540,16 +4570,16 @@
     <t>good|list|rest|wine</t>
   </si>
   <si>
-    <t>away</t>
+    <t>away|rice|rice</t>
   </si>
   <si>
     <t>share|family</t>
   </si>
   <si>
-    <t>service|price|come</t>
-  </si>
-  <si>
-    <t>service|always|everything</t>
+    <t>service|price|rice|come</t>
+  </si>
+  <si>
+    <t>service|always</t>
   </si>
   <si>
     <t>edible|special</t>
@@ -4591,10 +4621,10 @@
     <t>fresh|adequately|seemed|sushi|pretty</t>
   </si>
   <si>
-    <t>good|fish</t>
-  </si>
-  <si>
-    <t>price|well|sushi</t>
+    <t>good|fish|rice|rice</t>
+  </si>
+  <si>
+    <t>price|well|sushi|rice</t>
   </si>
   <si>
     <t>service|well|food</t>
@@ -4603,7 +4633,7 @@
     <t>prix|fixe|menu|penny|quantity|quality</t>
   </si>
   <si>
-    <t>fresh|food|filled|much|continually|refilled|tasty|$6</t>
+    <t>fresh|food|filled|much|continually|refilled|tasty|$6!-</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4612,19 +4642,16 @@
     <t>good|food|like</t>
   </si>
   <si>
-    <t>service|sometimes|sometimes</t>
-  </si>
-  <si>
     <t>bland|spicy|food|like</t>
   </si>
   <si>
     <t>ambience|pretty|casual|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice|reasonable</t>
   </si>
   <si>
     <t>edible|dessert|recommend</t>
@@ -4645,7 +4672,7 @@
     <t>pizza|live</t>
   </si>
   <si>
-    <t>pizza|price</t>
+    <t>pizza|price|rice</t>
   </si>
   <si>
     <t>good|pizza</t>
@@ -4672,7 +4699,7 @@
     <t>always|always|young|friendly|nevertheless|wife|well</t>
   </si>
   <si>
-    <t>price|wine|reasonable</t>
+    <t>price|wine|rice|reasonable</t>
   </si>
   <si>
     <t>great|delicious|service|food|come</t>
@@ -4690,13 +4717,13 @@
     <t>great|always|wine</t>
   </si>
   <si>
-    <t>sometimes|always|friendly|forget|work|people</t>
+    <t>always|friendly|forget|work|people</t>
   </si>
   <si>
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>good</t>
@@ -4705,12 +4732,21 @@
     <t>food|much</t>
   </si>
   <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
     <t>great|service|friendly</t>
   </si>
   <si>
     <t>great|pizza|service</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
+    <t>city|york|sushi</t>
+  </si>
+  <si>
     <t>food|place</t>
   </si>
   <si>
@@ -4720,7 +4756,7 @@
     <t>great|always|food|sushi</t>
   </si>
   <si>
-    <t>great|price|atmosphere</t>
+    <t>great|price|atmosphere|rice</t>
   </si>
   <si>
     <t>looked|dumpling|appetizer</t>
@@ -4741,7 +4777,7 @@
     <t>restaurant|charm|rest|warm</t>
   </si>
   <si>
-    <t>great|great|price|selection|wine</t>
+    <t>great|great|price|selection|wine|rice</t>
   </si>
   <si>
     <t>good|food|find|vibe</t>
@@ -4759,13 +4795,16 @@
     <t>spicy|roll</t>
   </si>
   <si>
+    <t>lobster</t>
+  </si>
+  <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>price|dessert|$8.00...just</t>
-  </si>
-  <si>
-    <t>made|price|always|well|selection|wine</t>
+    <t>price|rice|dessert|$8.00!-</t>
+  </si>
+  <si>
+    <t>made|price|always|well|selection|wine|rice</t>
   </si>
   <si>
     <t>special</t>
@@ -4780,10 +4819,10 @@
     <t>delight|delicious|food</t>
   </si>
   <si>
-    <t>price|well|well|rest|wine</t>
-  </si>
-  <si>
-    <t>sitting|bathroom|order</t>
+    <t>price|well|well|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>sitting|waitress|bathroom|order</t>
   </si>
   <si>
     <t>restaurant|service|away|rest|food</t>
@@ -4810,669 +4849,678 @@
     <t>mozzarella|appetizer|selection|would</t>
   </si>
   <si>
-    <t>staff|business</t>
+    <t>staff|business|pie|uws</t>
+  </si>
+  <si>
+    <t>restaurant|salad|rest|food</t>
+  </si>
+  <si>
+    <t>service|warm</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>would|would|still|else|lived|live</t>
+  </si>
+  <si>
+    <t>roll|served</t>
+  </si>
+  <si>
+    <t>looked|sake</t>
+  </si>
+  <si>
+    <t>roll|special|lobster</t>
+  </si>
+  <si>
+    <t>good|service</t>
+  </si>
+  <si>
+    <t>good|well|though|food|selection|order</t>
+  </si>
+  <si>
+    <t>good|list|filled|selection|wine|wine</t>
+  </si>
+  <si>
+    <t>restaurant|though|rest</t>
+  </si>
+  <si>
+    <t>restaurant|always|though|rest</t>
+  </si>
+  <si>
+    <t>good|fresh|though|food|order</t>
+  </si>
+  <si>
+    <t>take|salad|atmosphere|order|lobster|jazz|cobb|live|band|taken</t>
+  </si>
+  <si>
+    <t>delicious|made|food|food</t>
+  </si>
+  <si>
+    <t>served|food</t>
+  </si>
+  <si>
+    <t>good|made|laugh|hidden|bathroom|place</t>
+  </si>
+  <si>
+    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>service|bart|food|must</t>
+  </si>
+  <si>
+    <t>fresh|high|roll|highly|much|recommend|lobster|lobster</t>
+  </si>
+  <si>
+    <t>pizza|chip|enjoyed|salad|santa|chopped|fish|guest</t>
+  </si>
+  <si>
+    <t>service|high|ambience|bart|food|wonderful|highly|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>dumpling</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|rest</t>
+  </si>
+  <si>
+    <t>roll|sushi|pretty|average</t>
+  </si>
+  <si>
+    <t>delicious|else</t>
+  </si>
+  <si>
+    <t>service|price|though|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|fresh|fresh|delicious|rest|food</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy|salad</t>
+  </si>
+  <si>
+    <t>fish|special</t>
+  </si>
+  <si>
+    <t>great|people|vibe</t>
+  </si>
+  <si>
+    <t>atmosphere|much|like</t>
+  </si>
+  <si>
+    <t>good|though|ambience</t>
+  </si>
+  <si>
+    <t>great|salad|though</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|price|roll|rice</t>
+  </si>
+  <si>
+    <t>good|well</t>
+  </si>
+  <si>
+    <t>food|order|$18!-</t>
+  </si>
+  <si>
+    <t>great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>price|dish|rice|rice|come|congee|noodle|reasonable|$3-6!-</t>
+  </si>
+  <si>
+    <t>great|high|well|take</t>
+  </si>
+  <si>
+    <t>wife|enjoyed|salad|tasty</t>
+  </si>
+  <si>
+    <t>fresh|dish|pasta|served</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>delicious|food|place</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>good|service|food</t>
+  </si>
+  <si>
+    <t>good|good|service|service|food</t>
+  </si>
+  <si>
+    <t>dish|served|atmosphere|wine|place</t>
+  </si>
+  <si>
+    <t>good|pizza|place</t>
+  </si>
+  <si>
+    <t>delicious|though|still</t>
+  </si>
+  <si>
+    <t>pizza|taste</t>
+  </si>
+  <si>
+    <t>good|pretty|tasty</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>service|friendly|people</t>
+  </si>
+  <si>
+    <t>delicious|food</t>
+  </si>
+  <si>
+    <t>pizza|made|pasta</t>
+  </si>
+  <si>
+    <t>delight|service|ambience</t>
+  </si>
+  <si>
+    <t>food|still</t>
+  </si>
+  <si>
+    <t>taste|like|like|hanger|rubber</t>
+  </si>
+  <si>
+    <t>great|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest|food</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ambience|like</t>
+  </si>
+  <si>
+    <t>dish|noodle|order</t>
+  </si>
+  <si>
+    <t>good|meal|place</t>
+  </si>
+  <si>
+    <t>good|place</t>
+  </si>
+  <si>
+    <t>pizza|service|made|wine|place</t>
+  </si>
+  <si>
+    <t>city|place|romantic|claimed</t>
+  </si>
+  <si>
+    <t>restaurant|price|list|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>list|selection|wine|listed|average|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|price|rice|would</t>
+  </si>
+  <si>
+    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
+  </si>
+  <si>
+    <t>food|could|average</t>
+  </si>
+  <si>
+    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>left|dessert|recommend|else</t>
+  </si>
+  <si>
+    <t>fresh|delicious|service|fish</t>
+  </si>
+  <si>
+    <t>appetizer</t>
+  </si>
+  <si>
+    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
+  </si>
+  <si>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>great|great|restaurant|service|rest|food|atmosphere</t>
+  </si>
+  <si>
+    <t>fresh|music</t>
+  </si>
+  <si>
+    <t>service|meal</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>great|service|special|place|romantic</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|rice|rice|like</t>
+  </si>
+  <si>
+    <t>place|much</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|though|food|order</t>
+  </si>
+  <si>
+    <t>price|rice</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>high|price|rest|rice</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>sushi|special|atmosphere|like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cheap|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>restaurant|list|rest|romantic</t>
+  </si>
+  <si>
+    <t>price|food|wine|rice</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|service|always</t>
+  </si>
+  <si>
+    <t>hostess|waitress|could</t>
+  </si>
+  <si>
+    <t>waitress|dessert|order</t>
+  </si>
+  <si>
+    <t>service|price|price|food|place|rice|rice|like</t>
+  </si>
+  <si>
+    <t>dish|average</t>
+  </si>
+  <si>
+    <t>service|though</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>restaurant|rest|must</t>
+  </si>
+  <si>
+    <t>cheap|price|rice</t>
+  </si>
+  <si>
+    <t>great|cheap|food</t>
+  </si>
+  <si>
+    <t>chip|come|like|$7!-</t>
+  </si>
+  <si>
+    <t>sitting|uncomfortable|wooden</t>
+  </si>
+  <si>
+    <t>good|good|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|price|rest|rice</t>
+  </si>
+  <si>
+    <t>good|high|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>good|price|though|rice|lobster|$24!-</t>
+  </si>
+  <si>
+    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
+  </si>
+  <si>
+    <t>mark|waiter</t>
+  </si>
+  <si>
+    <t>cheap|food</t>
+  </si>
+  <si>
+    <t>great|delight|$10!-</t>
+  </si>
+  <si>
+    <t>price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>great|atmosphere|come|would</t>
+  </si>
+  <si>
+    <t>great|great|good|food|place</t>
+  </si>
+  <si>
+    <t>work|people|wrong|evil|like</t>
+  </si>
+  <si>
+    <t>service|served|people</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>away|work</t>
+  </si>
+  <si>
+    <t>great|good|place|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>great|price|ambience|food|rice|tasty</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest</t>
+  </si>
+  <si>
+    <t>much|order</t>
+  </si>
+  <si>
+    <t>great|price|food|rice</t>
+  </si>
+  <si>
+    <t>weather|snag|table</t>
+  </si>
+  <si>
+    <t>seemed|bathroom</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>meal|friendly</t>
+  </si>
+  <si>
+    <t>well|music</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>wonderful|special|place</t>
+  </si>
+  <si>
+    <t>waiter|money|guys|outta</t>
+  </si>
+  <si>
+    <t>bit|menu</t>
+  </si>
+  <si>
+    <t>cheap|food|could</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>price|taste|rice</t>
+  </si>
+  <si>
+    <t>great|take|place</t>
+  </si>
+  <si>
+    <t>price|place|rice</t>
+  </si>
+  <si>
+    <t>take|else</t>
+  </si>
+  <si>
+    <t>well|place</t>
+  </si>
+  <si>
+    <t>great|music|like|100 dollar!-</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>price|food|rice</t>
+  </si>
+  <si>
+    <t>delight|place</t>
+  </si>
+  <si>
+    <t>wonderful|$*!-</t>
+  </si>
+  <si>
+    <t>delight|atmosphere</t>
+  </si>
+  <si>
+    <t>great|great|homey|setting|vanilla|music|recommend|$8.50!-</t>
+  </si>
+  <si>
+    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
+  </si>
+  <si>
+    <t>good|price|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|working|work|rest</t>
+  </si>
+  <si>
+    <t>setting|casual|romantic</t>
+  </si>
+  <si>
+    <t>price|though|rest|rice</t>
+  </si>
+  <si>
+    <t>atmosphere|like</t>
+  </si>
+  <si>
+    <t>service|friendly|casual|atmosphere</t>
+  </si>
+  <si>
+    <t>city|price|place|rice</t>
+  </si>
+  <si>
+    <t>service|served|place|much|would</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>great|price|though|rice</t>
+  </si>
+  <si>
+    <t>guest|ambience|place|like</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>good|cheap|place</t>
+  </si>
+  <si>
+    <t>great|service|place|place|romantic|live</t>
+  </si>
+  <si>
+    <t>meal|price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>still|courtesey|measure|liquers</t>
+  </si>
+  <si>
+    <t>waiters|chin</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>great|great|price|food|place|rice</t>
+  </si>
+  <si>
+    <t>sitting|high</t>
+  </si>
+  <si>
+    <t>friendly|warm|warm</t>
+  </si>
+  <si>
+    <t>great|good|price|food|wine|rice|reasonable|selecion</t>
+  </si>
+  <si>
+    <t>good|price|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|would|average</t>
+  </si>
+  <si>
+    <t>great|place</t>
+  </si>
+  <si>
+    <t>good|cheap|food</t>
+  </si>
+  <si>
+    <t>good|atmosphere</t>
+  </si>
+  <si>
+    <t>good|cheap|wine</t>
+  </si>
+  <si>
+    <t>drinks|half</t>
+  </si>
+  <si>
+    <t>toons|redone|space</t>
+  </si>
+  <si>
+    <t>delight|york</t>
+  </si>
+  <si>
+    <t>great|price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>good|edible|price|food|rice</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>great|good|service|price|music|food|rice</t>
+  </si>
+  <si>
+    <t>price|fish|rice</t>
+  </si>
+  <si>
+    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|rice|rice|rice|like</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|price|work|rest|food|rice</t>
+  </si>
+  <si>
+    <t>service|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>price|chip|fish|rice|$15!-</t>
+  </si>
+  <si>
+    <t>restaurant|city|york|rest|warm</t>
+  </si>
+  <si>
+    <t>setting|like</t>
+  </si>
+  <si>
+    <t>good|meal|though|$60!-</t>
+  </si>
+  <si>
+    <t>away|hidden|place</t>
+  </si>
+  <si>
+    <t>atmosphere|come</t>
+  </si>
+  <si>
+    <t>service|price|food|rice</t>
+  </si>
+  <si>
+    <t>season|charge</t>
+  </si>
+  <si>
+    <t>dinner|manhattan|feet|$400.00!-</t>
+  </si>
+  <si>
+    <t>garden|area</t>
+  </si>
+  <si>
+    <t>bland|$11!-</t>
+  </si>
+  <si>
+    <t>good|food|place</t>
+  </si>
+  <si>
+    <t>high|highly|place|recommend</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>good|price|friendly|people|food|rice</t>
+  </si>
+  <si>
+    <t>high|price|food|rice</t>
+  </si>
+  <si>
+    <t>bathroom|bathroom</t>
+  </si>
+  <si>
+    <t>price|rest|rice|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
   </si>
   <si>
     <t>restaurant|rest|food</t>
   </si>
   <si>
-    <t>service|warm</t>
-  </si>
-  <si>
-    <t>staff|nonsense</t>
-  </si>
-  <si>
-    <t>would|would|still|else|lived|live</t>
-  </si>
-  <si>
-    <t>roll|served</t>
-  </si>
-  <si>
-    <t>looked|sake</t>
-  </si>
-  <si>
-    <t>roll|special</t>
-  </si>
-  <si>
-    <t>good|service</t>
-  </si>
-  <si>
-    <t>good|well|though|food|selection|order</t>
-  </si>
-  <si>
-    <t>good|list|filled|selection|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|though|rest</t>
-  </si>
-  <si>
-    <t>restaurant|always|though|rest</t>
-  </si>
-  <si>
-    <t>good|fresh|though|food|order</t>
-  </si>
-  <si>
-    <t>take|atmosphere|order|jazz|live|band|taken</t>
-  </si>
-  <si>
-    <t>delicious|made|food|food</t>
-  </si>
-  <si>
-    <t>served|food</t>
-  </si>
-  <si>
-    <t>good|made|laugh|hidden|bathroom|place</t>
-  </si>
-  <si>
-    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>service|food|must</t>
-  </si>
-  <si>
-    <t>fresh|high|roll|highly|much|recommend</t>
-  </si>
-  <si>
-    <t>pizza|chip|enjoyed|santa|chopped|fish|guest</t>
-  </si>
-  <si>
-    <t>service|high|ambience|food|wonderful|highly|recommend</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>dumpling</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|rest</t>
-  </si>
-  <si>
-    <t>roll|sushi|pretty|average</t>
-  </si>
-  <si>
-    <t>delicious|everything|else</t>
-  </si>
-  <si>
-    <t>service|price|though|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|fresh|fresh|delicious|rest|food</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>fresh|delicious|spicy</t>
-  </si>
-  <si>
-    <t>fish|special</t>
-  </si>
-  <si>
-    <t>great|people|vibe</t>
-  </si>
-  <si>
-    <t>atmosphere|much|like</t>
-  </si>
-  <si>
-    <t>good|though|ambience</t>
-  </si>
-  <si>
-    <t>great|though</t>
-  </si>
-  <si>
-    <t>good|sushi</t>
-  </si>
-  <si>
-    <t>spicy|price|roll</t>
-  </si>
-  <si>
-    <t>good|well</t>
-  </si>
-  <si>
-    <t>food|order|$18</t>
-  </si>
-  <si>
-    <t>great|service|price|food</t>
-  </si>
-  <si>
-    <t>price|dish|come|congee|noodle|reasonable|$3-6</t>
-  </si>
-  <si>
-    <t>great|high|well|take</t>
-  </si>
-  <si>
-    <t>wife|enjoyed|tasty</t>
-  </si>
-  <si>
-    <t>fresh|dish|timely|pasta|served</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>delicious|food|place</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>good|service|sometimes|food</t>
-  </si>
-  <si>
-    <t>good|good|service|service|sometimes|sometimes|food</t>
-  </si>
-  <si>
-    <t>dish|served|atmosphere|wine|place</t>
-  </si>
-  <si>
-    <t>good|pizza|place</t>
-  </si>
-  <si>
-    <t>delicious|though|still</t>
-  </si>
-  <si>
-    <t>pizza|taste</t>
-  </si>
-  <si>
-    <t>good|pretty|tasty</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|friendly|people</t>
-  </si>
-  <si>
-    <t>delicious|food</t>
-  </si>
-  <si>
-    <t>pizza|made|pasta</t>
-  </si>
-  <si>
-    <t>delight|service|ambience</t>
-  </si>
-  <si>
-    <t>food|still</t>
-  </si>
-  <si>
-    <t>taste|like|like|hanger</t>
-  </si>
-  <si>
-    <t>great|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest|food</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ambience|like</t>
-  </si>
-  <si>
-    <t>dish|noodle|order</t>
-  </si>
-  <si>
-    <t>good|meal|place</t>
-  </si>
-  <si>
-    <t>good|place</t>
-  </si>
-  <si>
-    <t>pizza|service|made|wine|place</t>
-  </si>
-  <si>
-    <t>place|romantic|claimed</t>
-  </si>
-  <si>
-    <t>restaurant|price|list|rest|wine</t>
-  </si>
-  <si>
-    <t>list|selection|wine|listed|average|$70+</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
-  </si>
-  <si>
-    <t>food|could|average</t>
-  </si>
-  <si>
-    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|would</t>
-  </si>
-  <si>
-    <t>left|dessert|recommend|else</t>
-  </si>
-  <si>
-    <t>fresh|delicious|service|fish</t>
-  </si>
-  <si>
-    <t>appetizer</t>
-  </si>
-  <si>
-    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
-  </si>
-  <si>
-    <t>service|place</t>
-  </si>
-  <si>
-    <t>great|great|restaurant|service|rest|food|atmosphere</t>
-  </si>
-  <si>
-    <t>fresh|music</t>
-  </si>
-  <si>
-    <t>service|meal</t>
-  </si>
-  <si>
-    <t>service|wonderful</t>
-  </si>
-  <si>
-    <t>great|service|special|place|romantic</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like</t>
-  </si>
-  <si>
-    <t>place|much</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>service|though|food|order</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high|price|rest</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>sushi|special|atmosphere|like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cheap|service|price|food</t>
-  </si>
-  <si>
-    <t>restaurant|list|rest|romantic</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>everything|could</t>
-  </si>
-  <si>
-    <t>dessert|order</t>
-  </si>
-  <si>
-    <t>service|price|price|food|place|like</t>
-  </si>
-  <si>
-    <t>dish|average</t>
-  </si>
-  <si>
-    <t>service|though</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>restaurant|rest|must</t>
-  </si>
-  <si>
-    <t>cheap|price</t>
-  </si>
-  <si>
-    <t>great|cheap|food</t>
-  </si>
-  <si>
-    <t>chip|come|like|$7)</t>
-  </si>
-  <si>
-    <t>sitting|uncomfortable|wooden</t>
-  </si>
-  <si>
-    <t>good|good|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|price|rest</t>
-  </si>
-  <si>
-    <t>good|high|price|though|food</t>
-  </si>
-  <si>
-    <t>good|price|though|$24</t>
-  </si>
-  <si>
-    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>cheap|food</t>
-  </si>
-  <si>
-    <t>great|delight|$10.</t>
-  </si>
-  <si>
-    <t>price|list|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|come|would</t>
-  </si>
-  <si>
-    <t>great|great|good|food|place</t>
-  </si>
-  <si>
-    <t>work|people|wrong|evil|like</t>
-  </si>
-  <si>
-    <t>service|served|people|everything</t>
-  </si>
-  <si>
-    <t>away|work</t>
-  </si>
-  <si>
-    <t>great|good|place|would</t>
-  </si>
-  <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>great|price|ambience|food|tasty</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest</t>
-  </si>
-  <si>
-    <t>much|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
-    <t>weather|snag|table</t>
-  </si>
-  <si>
-    <t>seemed|bathroom</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>meal|friendly</t>
-  </si>
-  <si>
-    <t>well|music</t>
-  </si>
-  <si>
-    <t>sitting</t>
-  </si>
-  <si>
-    <t>wonderful|special|place|money.</t>
-  </si>
-  <si>
-    <t>money|guys|outta|money</t>
-  </si>
-  <si>
-    <t>cheap|food|could</t>
-  </si>
-  <si>
-    <t>wait|staff</t>
-  </si>
-  <si>
-    <t>price|taste</t>
-  </si>
-  <si>
-    <t>great|take|place</t>
-  </si>
-  <si>
-    <t>price|place</t>
-  </si>
-  <si>
-    <t>take|else</t>
-  </si>
-  <si>
-    <t>well|place</t>
-  </si>
-  <si>
-    <t>great|music|like</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>price|food</t>
-  </si>
-  <si>
-    <t>delight|place</t>
-  </si>
-  <si>
-    <t>wonderful|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>delight|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|homey|setting|vanilla|music|recommend|$8.50</t>
-  </si>
-  <si>
-    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
-  </si>
-  <si>
-    <t>good|price|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|working|work|rest</t>
-  </si>
-  <si>
-    <t>setting|casual|romantic</t>
-  </si>
-  <si>
-    <t>price|though|rest</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>service|friendly|casual|atmosphere</t>
-  </si>
-  <si>
-    <t>service|served|place|much|would</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>great|price|though</t>
-  </si>
-  <si>
-    <t>guest|ambience|place|like</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food</t>
-  </si>
-  <si>
-    <t>good|cheap|place</t>
-  </si>
-  <si>
-    <t>great|service|place|place|romantic|live</t>
-  </si>
-  <si>
-    <t>meal|price|list|wine</t>
-  </si>
-  <si>
-    <t>still|courtesey|measure|liquers</t>
-  </si>
-  <si>
-    <t>thing|waiters|chin</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>great|great|price|food|place</t>
-  </si>
-  <si>
-    <t>sitting|high</t>
-  </si>
-  <si>
-    <t>food|place|money.</t>
-  </si>
-  <si>
-    <t>friendly|warm|warm</t>
-  </si>
-  <si>
-    <t>great|good|price|food|wine|reasonable|selecion</t>
-  </si>
-  <si>
-    <t>good|price|everything</t>
-  </si>
-  <si>
-    <t>price|food|would|average</t>
-  </si>
-  <si>
-    <t>great|place</t>
-  </si>
-  <si>
-    <t>good|cheap|food</t>
-  </si>
-  <si>
-    <t>good|atmosphere</t>
-  </si>
-  <si>
-    <t>good|cheap|wine</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
-  </si>
-  <si>
-    <t>toons|redone|space</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>great|price|food|reasonable</t>
-  </si>
-  <si>
-    <t>good|edible|price|food</t>
-  </si>
-  <si>
-    <t>jazz</t>
-  </si>
-  <si>
-    <t>great|good|service|price|music|food</t>
-  </si>
-  <si>
-    <t>price|fish</t>
-  </si>
-  <si>
-    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|like</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|price|work|rest|food</t>
-  </si>
-  <si>
-    <t>service|price|though|food</t>
-  </si>
-  <si>
-    <t>price|food|reasonable</t>
-  </si>
-  <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>price|chip|fish|$15....</t>
-  </si>
-  <si>
-    <t>restaurant|rest|warm</t>
-  </si>
-  <si>
-    <t>setting|like</t>
-  </si>
-  <si>
-    <t>good|meal|though|$60</t>
-  </si>
-  <si>
-    <t>away|hidden|place</t>
-  </si>
-  <si>
-    <t>atmosphere|come</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>season|charge</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
-  </si>
-  <si>
-    <t>garden|area</t>
-  </si>
-  <si>
-    <t>bland|$11</t>
-  </si>
-  <si>
-    <t>good|food|place</t>
-  </si>
-  <si>
-    <t>high|highly|place|recommend</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
-  </si>
-  <si>
-    <t>good|price|friendly|people|food</t>
-  </si>
-  <si>
-    <t>high|price|food</t>
-  </si>
-  <si>
-    <t>bathroom|bathroom</t>
-  </si>
-  <si>
-    <t>price|rest|would</t>
-  </si>
-  <si>
-    <t>great|romantic</t>
-  </si>
-  <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
@@ -5485,16 +5533,13 @@
     <t>pretty|atmosphere</t>
   </si>
   <si>
-    <t>service|price|dish|average|$10.</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>service|price|dish|rice|average|$10!-</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>wine|$500</t>
+    <t>wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5503,22 +5548,19 @@
     <t>common|place</t>
   </si>
   <si>
-    <t>season|season|restaurant|restaurant|nose|history|trust|charge|rest|rest|sort</t>
+    <t>season|season|restaurant|restaurant|nose|history|trust|charge|city|york|rest|rest|sort</t>
   </si>
   <si>
     <t>high|highly</t>
   </si>
   <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|$55</t>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|$55!-</t>
   </si>
   <si>
     <t>supposed|good|left|empy|food|would</t>
@@ -5527,16 +5569,16 @@
     <t>meal|edible|seemed|would</t>
   </si>
   <si>
-    <t>restaurant|left|rest|money.</t>
+    <t>restaurant|left|rest</t>
   </si>
   <si>
     <t>good|fresh|food</t>
   </si>
   <si>
-    <t>restaurant|instead|price|rest|place|would|$25),</t>
-  </si>
-  <si>
-    <t>food|place|$</t>
+    <t>restaurant|instead|price|rest|place|rice|rice|would|$25!-</t>
+  </si>
+  <si>
+    <t>food|place|$!-</t>
   </si>
   <si>
     <t>lunch|buffet</t>
@@ -5545,28 +5587,31 @@
     <t>place|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>restaurant|rest|sushi|romantic</t>
-  </si>
-  <si>
-    <t>sake|wonderful|$29</t>
-  </si>
-  <si>
-    <t>great|good|price|reasonable</t>
-  </si>
-  <si>
-    <t>service|well|$500</t>
-  </si>
-  <si>
-    <t>great|good|fresh|service|meal</t>
-  </si>
-  <si>
-    <t>good|high|price|food|come|would</t>
-  </si>
-  <si>
-    <t>restaurant|bland|taste|fish|rest|$24</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>restaurant|city|rest|romantic</t>
+  </si>
+  <si>
+    <t>restaurant|city|rest|sushi|romantic</t>
+  </si>
+  <si>
+    <t>sake|wonderful|$29!-</t>
+  </si>
+  <si>
+    <t>great|good|price|rice|reasonable</t>
+  </si>
+  <si>
+    <t>service|well|$500!-</t>
+  </si>
+  <si>
+    <t>great|good|fresh|service|meal|salad</t>
+  </si>
+  <si>
+    <t>good|high|price|food|rice|come|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|taste|fish|rest|$24!-</t>
   </si>
   <si>
     <t>come</t>
@@ -5575,10 +5620,13 @@
     <t>list|reasonable|would|listed</t>
   </si>
   <si>
-    <t>service|$60</t>
-  </si>
-  <si>
-    <t>price|place|average</t>
+    <t>service|$60!-</t>
+  </si>
+  <si>
+    <t>price|place|rice|average</t>
+  </si>
+  <si>
+    <t>price|salad|rice</t>
   </si>
   <si>
     <t>negative</t>
@@ -6090,10 +6138,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1504</v>
+        <v>1514</v>
       </c>
       <c r="H2" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6119,7 +6167,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6142,10 +6190,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1505</v>
+        <v>1515</v>
       </c>
       <c r="H4" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6168,10 +6216,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1506</v>
+        <v>1516</v>
       </c>
       <c r="H5" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6194,10 +6242,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1507</v>
+        <v>1517</v>
       </c>
       <c r="H6" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6217,13 +6265,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1276</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1508</v>
+        <v>1518</v>
       </c>
       <c r="H7" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6243,13 +6291,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1509</v>
+        <v>1519</v>
       </c>
       <c r="H8" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6269,13 +6317,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1510</v>
+        <v>1520</v>
       </c>
       <c r="H9" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6295,13 +6343,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1511</v>
+        <v>1521</v>
       </c>
       <c r="H10" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6321,13 +6369,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1512</v>
+        <v>1522</v>
       </c>
       <c r="H11" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6347,13 +6395,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G12" t="s">
-        <v>1513</v>
+        <v>1523</v>
       </c>
       <c r="H12" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6373,13 +6421,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G13" t="s">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="H13" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6399,13 +6447,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G14" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="H14" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6431,7 +6479,7 @@
         <v>1089</v>
       </c>
       <c r="H15" t="s">
-        <v>1861</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6451,13 +6499,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G16" t="s">
-        <v>1516</v>
+        <v>1526</v>
       </c>
       <c r="H16" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6477,13 +6525,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1517</v>
+        <v>1527</v>
       </c>
       <c r="H17" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6503,13 +6551,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="H18" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6535,7 +6583,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6555,13 +6603,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G20" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="H20" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6587,7 +6635,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6610,10 +6658,10 @@
         <v>1350</v>
       </c>
       <c r="G22" t="s">
-        <v>1520</v>
+        <v>1530</v>
       </c>
       <c r="H22" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6636,10 +6684,10 @@
         <v>1285</v>
       </c>
       <c r="G23" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="H23" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6662,10 +6710,10 @@
         <v>1351</v>
       </c>
       <c r="G24" t="s">
-        <v>1522</v>
+        <v>1532</v>
       </c>
       <c r="H24" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6691,7 +6739,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6714,10 +6762,10 @@
         <v>1352</v>
       </c>
       <c r="G26" t="s">
-        <v>1523</v>
+        <v>1533</v>
       </c>
       <c r="H26" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6740,10 +6788,10 @@
         <v>1353</v>
       </c>
       <c r="G27" t="s">
-        <v>1524</v>
+        <v>1534</v>
       </c>
       <c r="H27" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6763,13 +6811,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G28" t="s">
-        <v>1525</v>
+        <v>1535</v>
       </c>
       <c r="H28" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6789,13 +6837,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G29" t="s">
-        <v>1526</v>
+        <v>1536</v>
       </c>
       <c r="H29" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6815,13 +6863,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G30" t="s">
-        <v>1527</v>
+        <v>1537</v>
       </c>
       <c r="H30" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6841,13 +6889,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G31" t="s">
-        <v>1528</v>
+        <v>1538</v>
       </c>
       <c r="H31" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6867,13 +6915,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G32" t="s">
-        <v>1529</v>
+        <v>1539</v>
       </c>
       <c r="H32" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6896,10 +6944,10 @@
         <v>1351</v>
       </c>
       <c r="G33" t="s">
-        <v>1530</v>
+        <v>1540</v>
       </c>
       <c r="H33" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6919,13 +6967,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G34" t="s">
-        <v>1531</v>
+        <v>1541</v>
       </c>
       <c r="H34" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6948,10 +6996,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="H35" t="s">
-        <v>1863</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6971,13 +7019,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="G36" t="s">
-        <v>1532</v>
+        <v>947</v>
       </c>
       <c r="H36" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7000,10 +7048,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1506</v>
+        <v>1516</v>
       </c>
       <c r="H37" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7023,13 +7071,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G38" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="H38" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7049,13 +7097,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G39" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="H39" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7075,13 +7123,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G40" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="H40" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7101,13 +7149,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G41" t="s">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="H41" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7127,13 +7175,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G42" t="s">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="H42" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7153,13 +7201,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G43" t="s">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="H43" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7179,13 +7227,13 @@
         <v>1285</v>
       </c>
       <c r="F44" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G44" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H44" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7205,13 +7253,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G45" t="s">
-        <v>1540</v>
+        <v>1549</v>
       </c>
       <c r="H45" t="s">
-        <v>1864</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7234,10 +7282,10 @@
         <v>1351</v>
       </c>
       <c r="G46" t="s">
-        <v>1541</v>
+        <v>1550</v>
       </c>
       <c r="H46" t="s">
-        <v>1865</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7257,13 +7305,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G47" t="s">
-        <v>1542</v>
+        <v>1551</v>
       </c>
       <c r="H47" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7283,13 +7331,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G48" t="s">
-        <v>1543</v>
+        <v>1552</v>
       </c>
       <c r="H48" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7312,10 +7360,10 @@
         <v>1351</v>
       </c>
       <c r="G49" t="s">
-        <v>1544</v>
+        <v>1553</v>
       </c>
       <c r="H49" t="s">
-        <v>1866</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7341,7 +7389,7 @@
         <v>1046</v>
       </c>
       <c r="H50" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7361,13 +7409,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G51" t="s">
-        <v>1545</v>
+        <v>1554</v>
       </c>
       <c r="H51" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7387,13 +7435,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G52" t="s">
-        <v>1546</v>
+        <v>1555</v>
       </c>
       <c r="H52" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7416,10 +7464,10 @@
         <v>1285</v>
       </c>
       <c r="G53" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H53" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7442,10 +7490,10 @@
         <v>1276</v>
       </c>
       <c r="G54" t="s">
-        <v>1548</v>
+        <v>1557</v>
       </c>
       <c r="H54" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7465,13 +7513,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G55" t="s">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="H55" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7491,13 +7539,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G56" t="s">
-        <v>1550</v>
+        <v>1559</v>
       </c>
       <c r="H56" t="s">
-        <v>1868</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7517,13 +7565,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G57" t="s">
-        <v>1551</v>
+        <v>1560</v>
       </c>
       <c r="H57" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7543,13 +7591,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G58" t="s">
-        <v>1552</v>
+        <v>1561</v>
       </c>
       <c r="H58" t="s">
-        <v>1869</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7569,13 +7617,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G59" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="H59" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7594,8 +7642,14 @@
       <c r="E60" t="s">
         <v>1276</v>
       </c>
+      <c r="F60" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G60" t="s">
+        <v>983</v>
+      </c>
       <c r="H60" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7618,10 +7672,10 @@
         <v>1351</v>
       </c>
       <c r="G61" t="s">
-        <v>1554</v>
+        <v>1563</v>
       </c>
       <c r="H61" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7641,13 +7695,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G62" t="s">
-        <v>1555</v>
+        <v>1564</v>
       </c>
       <c r="H62" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7667,13 +7721,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G63" t="s">
-        <v>1556</v>
+        <v>1565</v>
       </c>
       <c r="H63" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7693,13 +7747,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G64" t="s">
-        <v>1557</v>
+        <v>1566</v>
       </c>
       <c r="H64" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7719,13 +7773,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G65" t="s">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="H65" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7745,13 +7799,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G66" t="s">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="H66" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7771,13 +7825,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G67" t="s">
-        <v>1559</v>
+        <v>1568</v>
       </c>
       <c r="H67" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7803,7 +7857,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7823,13 +7877,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1343</v>
+        <v>1379</v>
       </c>
       <c r="G69" t="s">
-        <v>1560</v>
+        <v>1569</v>
       </c>
       <c r="H69" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7852,10 +7906,10 @@
         <v>1285</v>
       </c>
       <c r="G70" t="s">
-        <v>1561</v>
+        <v>1570</v>
       </c>
       <c r="H70" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7875,13 +7929,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G71" t="s">
-        <v>1562</v>
+        <v>1571</v>
       </c>
       <c r="H71" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7901,13 +7955,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1367</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1572</v>
       </c>
       <c r="H72" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7927,13 +7981,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G73" t="s">
-        <v>1563</v>
+        <v>1573</v>
       </c>
       <c r="H73" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7953,13 +8007,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G74" t="s">
-        <v>1564</v>
+        <v>1574</v>
       </c>
       <c r="H74" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7985,7 +8039,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8005,13 +8059,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1337</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1575</v>
       </c>
       <c r="H76" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8031,13 +8085,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G77" t="s">
-        <v>996</v>
+        <v>1576</v>
       </c>
       <c r="H77" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8057,13 +8111,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G78" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="H78" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8083,13 +8137,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G79" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="H79" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8109,13 +8163,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G80" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="H80" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8138,10 +8192,10 @@
         <v>1285</v>
       </c>
       <c r="G81" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H81" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8161,13 +8215,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G82" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="H82" t="s">
-        <v>1869</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8193,7 +8247,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8213,13 +8267,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G84" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
       <c r="H84" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8239,13 +8293,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G85" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="H85" t="s">
-        <v>1871</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8268,10 +8322,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="H86" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8291,13 +8345,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G87" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
       <c r="H87" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8320,10 +8374,10 @@
         <v>1350</v>
       </c>
       <c r="G88" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
       <c r="H88" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8346,10 +8400,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H89" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8372,10 +8426,10 @@
         <v>1352</v>
       </c>
       <c r="G90" t="s">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="H90" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8395,13 +8449,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="G91" t="s">
-        <v>1575</v>
+        <v>1587</v>
       </c>
       <c r="H91" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8421,13 +8475,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G92" t="s">
-        <v>1576</v>
+        <v>1588</v>
       </c>
       <c r="H92" t="s">
-        <v>1872</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8447,13 +8501,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G93" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
       <c r="H93" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8473,13 +8527,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G94" t="s">
-        <v>1578</v>
+        <v>1590</v>
       </c>
       <c r="H94" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8499,13 +8553,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G95" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
       <c r="H95" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8525,13 +8579,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G96" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="H96" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8550,8 +8604,14 @@
       <c r="E97" t="s">
         <v>1277</v>
       </c>
+      <c r="F97" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1593</v>
+      </c>
       <c r="H97" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8574,10 +8634,10 @@
         <v>1285</v>
       </c>
       <c r="G98" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="H98" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8597,13 +8657,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G99" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="H99" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8623,13 +8683,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G100" t="s">
-        <v>1583</v>
+        <v>1596</v>
       </c>
       <c r="H100" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8652,10 +8712,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
       <c r="H101" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8678,10 +8738,10 @@
         <v>1337</v>
       </c>
       <c r="G102" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
       <c r="H102" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8701,13 +8761,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G103" t="s">
-        <v>1586</v>
+        <v>1599</v>
       </c>
       <c r="H103" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8727,13 +8787,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G104" t="s">
-        <v>1587</v>
+        <v>1600</v>
       </c>
       <c r="H104" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8759,7 +8819,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8779,13 +8839,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G106" t="s">
-        <v>1588</v>
+        <v>1601</v>
       </c>
       <c r="H106" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8805,13 +8865,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G107" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="H107" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8831,13 +8891,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G108" t="s">
-        <v>1590</v>
+        <v>1603</v>
       </c>
       <c r="H108" t="s">
-        <v>1873</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8860,10 +8920,10 @@
         <v>1294</v>
       </c>
       <c r="G109" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
       <c r="H109" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8886,10 +8946,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1591</v>
+        <v>1604</v>
       </c>
       <c r="H110" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8912,10 +8972,10 @@
         <v>1351</v>
       </c>
       <c r="G111" t="s">
-        <v>1592</v>
+        <v>1605</v>
       </c>
       <c r="H111" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8935,13 +8995,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G112" t="s">
-        <v>1593</v>
+        <v>1606</v>
       </c>
       <c r="H112" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8961,13 +9021,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G113" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="H113" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8993,7 +9053,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9013,13 +9073,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G115" t="s">
-        <v>1595</v>
+        <v>1608</v>
       </c>
       <c r="H115" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9039,13 +9099,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G116" t="s">
-        <v>1596</v>
+        <v>1609</v>
       </c>
       <c r="H116" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9065,13 +9125,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G117" t="s">
-        <v>1597</v>
+        <v>1610</v>
       </c>
       <c r="H117" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9091,13 +9151,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1344</v>
+        <v>1396</v>
       </c>
       <c r="G118" t="s">
-        <v>1598</v>
+        <v>1611</v>
       </c>
       <c r="H118" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9117,13 +9177,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="G119" t="s">
-        <v>1599</v>
+        <v>1612</v>
       </c>
       <c r="H119" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9143,13 +9203,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G120" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H120" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9172,10 +9232,10 @@
         <v>1350</v>
       </c>
       <c r="G121" t="s">
-        <v>1600</v>
+        <v>1613</v>
       </c>
       <c r="H121" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9195,13 +9255,13 @@
         <v>1276</v>
       </c>
       <c r="F122" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G122" t="s">
-        <v>1601</v>
+        <v>1614</v>
       </c>
       <c r="H122" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9227,7 +9287,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9247,13 +9307,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="G124" t="s">
-        <v>1602</v>
+        <v>1615</v>
       </c>
       <c r="H124" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9273,13 +9333,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G125" t="s">
-        <v>1603</v>
+        <v>1616</v>
       </c>
       <c r="H125" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9302,10 +9362,10 @@
         <v>1351</v>
       </c>
       <c r="G126" t="s">
-        <v>1604</v>
+        <v>1617</v>
       </c>
       <c r="H126" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9325,13 +9385,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G127" t="s">
-        <v>1605</v>
+        <v>1618</v>
       </c>
       <c r="H127" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9351,13 +9411,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G128" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
       <c r="H128" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9377,13 +9437,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G129" t="s">
-        <v>1607</v>
+        <v>1620</v>
       </c>
       <c r="H129" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9403,13 +9463,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G130" t="s">
-        <v>1608</v>
+        <v>1621</v>
       </c>
       <c r="H130" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9429,13 +9489,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G131" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
       <c r="H131" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9455,13 +9515,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="G132" t="s">
-        <v>1610</v>
+        <v>1623</v>
       </c>
       <c r="H132" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9481,13 +9541,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G133" t="s">
-        <v>1611</v>
+        <v>1624</v>
       </c>
       <c r="H133" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9510,10 +9570,10 @@
         <v>1285</v>
       </c>
       <c r="G134" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H134" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9533,13 +9593,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="G135" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
       <c r="H135" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9565,7 +9625,7 @@
         <v>1046</v>
       </c>
       <c r="H136" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9585,13 +9645,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G137" t="s">
-        <v>1613</v>
+        <v>1626</v>
       </c>
       <c r="H137" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9614,10 +9674,10 @@
         <v>1350</v>
       </c>
       <c r="G138" t="s">
-        <v>1614</v>
+        <v>1627</v>
       </c>
       <c r="H138" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9637,13 +9697,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="G139" t="s">
-        <v>1615</v>
+        <v>1628</v>
       </c>
       <c r="H139" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9663,13 +9723,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="G140" t="s">
-        <v>1616</v>
+        <v>1629</v>
       </c>
       <c r="H140" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9695,7 +9755,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9718,10 +9778,10 @@
         <v>1276</v>
       </c>
       <c r="G142" t="s">
-        <v>1617</v>
+        <v>1630</v>
       </c>
       <c r="H142" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9741,13 +9801,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="G143" t="s">
-        <v>1618</v>
+        <v>1631</v>
       </c>
       <c r="H143" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9767,13 +9827,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="G144" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
       <c r="H144" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9793,13 +9853,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="G145" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
       <c r="H145" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9819,13 +9879,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="G146" t="s">
-        <v>1621</v>
+        <v>1634</v>
       </c>
       <c r="H146" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9851,7 +9911,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9874,10 +9934,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1622</v>
+        <v>1635</v>
       </c>
       <c r="H148" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9900,10 +9960,10 @@
         <v>1278</v>
       </c>
       <c r="G149" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
       <c r="H149" t="s">
-        <v>1874</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9923,13 +9983,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="G150" t="s">
-        <v>1624</v>
+        <v>1637</v>
       </c>
       <c r="H150" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9949,13 +10009,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G151" t="s">
-        <v>1625</v>
+        <v>1638</v>
       </c>
       <c r="H151" t="s">
-        <v>1875</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9975,13 +10035,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1409</v>
+        <v>1378</v>
       </c>
       <c r="G152" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
       <c r="H152" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -10001,13 +10061,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G153" t="s">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="H153" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -10027,13 +10087,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G154" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
       <c r="H154" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -10053,13 +10113,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1365</v>
       </c>
       <c r="G155" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
       <c r="H155" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -10079,13 +10139,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="G156" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
       <c r="H156" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10105,13 +10165,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G157" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
       <c r="H157" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10131,13 +10191,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G158" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
       <c r="H158" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10157,13 +10217,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G159" t="s">
-        <v>1633</v>
+        <v>1646</v>
       </c>
       <c r="H159" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10183,13 +10243,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G160" t="s">
-        <v>1634</v>
+        <v>1647</v>
       </c>
       <c r="H160" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10208,8 +10268,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10229,13 +10295,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G162" t="s">
-        <v>1635</v>
+        <v>1648</v>
       </c>
       <c r="H162" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10261,7 +10327,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10284,10 +10350,10 @@
         <v>1351</v>
       </c>
       <c r="G164" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
       <c r="H164" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10307,13 +10373,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G165" t="s">
-        <v>1637</v>
+        <v>1650</v>
       </c>
       <c r="H165" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10336,10 +10402,10 @@
         <v>1337</v>
       </c>
       <c r="G166" t="s">
-        <v>1638</v>
+        <v>1651</v>
       </c>
       <c r="H166" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10359,13 +10425,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1414</v>
+        <v>1379</v>
       </c>
       <c r="G167" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
       <c r="H167" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10385,13 +10451,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G168" t="s">
-        <v>1640</v>
+        <v>1653</v>
       </c>
       <c r="H168" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10417,7 +10483,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10437,13 +10503,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G170" t="s">
-        <v>1641</v>
+        <v>1654</v>
       </c>
       <c r="H170" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10463,13 +10529,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G171" t="s">
-        <v>1642</v>
+        <v>1655</v>
       </c>
       <c r="H171" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10489,13 +10555,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G172" t="s">
-        <v>1643</v>
+        <v>1656</v>
       </c>
       <c r="H172" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10515,13 +10581,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G173" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="H173" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10544,10 +10610,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1645</v>
+        <v>1658</v>
       </c>
       <c r="H174" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10567,13 +10633,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G175" t="s">
-        <v>1646</v>
+        <v>1659</v>
       </c>
       <c r="H175" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10593,13 +10659,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1276</v>
+        <v>1422</v>
       </c>
       <c r="G176" t="s">
-        <v>1647</v>
+        <v>1660</v>
       </c>
       <c r="H176" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10619,13 +10685,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G177" t="s">
-        <v>1648</v>
+        <v>1661</v>
       </c>
       <c r="H177" t="s">
-        <v>1865</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10645,13 +10711,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="G178" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="H178" t="s">
-        <v>1876</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10671,13 +10737,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G179" t="s">
-        <v>1650</v>
+        <v>1663</v>
       </c>
       <c r="H179" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10697,13 +10763,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G180" t="s">
-        <v>1651</v>
+        <v>1664</v>
       </c>
       <c r="H180" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10723,13 +10789,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="G181" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
       <c r="H181" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10749,13 +10815,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G182" t="s">
-        <v>1653</v>
+        <v>1666</v>
       </c>
       <c r="H182" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10775,13 +10841,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G183" t="s">
-        <v>1654</v>
+        <v>1667</v>
       </c>
       <c r="H183" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10801,13 +10867,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1351</v>
       </c>
       <c r="G184" t="s">
-        <v>1655</v>
+        <v>1668</v>
       </c>
       <c r="H184" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10827,13 +10893,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G185" t="s">
-        <v>1656</v>
+        <v>1669</v>
       </c>
       <c r="H185" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10859,7 +10925,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10879,13 +10945,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G187" t="s">
-        <v>1657</v>
+        <v>1670</v>
       </c>
       <c r="H187" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10905,13 +10971,13 @@
         <v>1277</v>
       </c>
       <c r="F188" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G188" t="s">
-        <v>1658</v>
+        <v>1671</v>
       </c>
       <c r="H188" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10931,13 +10997,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="G189" t="s">
-        <v>1659</v>
+        <v>1672</v>
       </c>
       <c r="H189" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10957,13 +11023,13 @@
         <v>1278</v>
       </c>
       <c r="F190" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G190" t="s">
-        <v>1660</v>
+        <v>1673</v>
       </c>
       <c r="H190" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10983,13 +11049,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G191" t="s">
-        <v>1661</v>
+        <v>1674</v>
       </c>
       <c r="H191" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -11009,13 +11075,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G192" t="s">
-        <v>1662</v>
+        <v>1675</v>
       </c>
       <c r="H192" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11035,13 +11101,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G193" t="s">
-        <v>1663</v>
+        <v>1676</v>
       </c>
       <c r="H193" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11064,10 +11130,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1664</v>
+        <v>1677</v>
       </c>
       <c r="H194" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -11087,13 +11153,13 @@
         <v>1285</v>
       </c>
       <c r="F195" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G195" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H195" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11116,10 +11182,10 @@
         <v>1337</v>
       </c>
       <c r="G196" t="s">
-        <v>1665</v>
+        <v>1678</v>
       </c>
       <c r="H196" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11145,7 +11211,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11165,7 +11231,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11185,13 +11251,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G199" t="s">
-        <v>1666</v>
+        <v>1679</v>
       </c>
       <c r="H199" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11211,13 +11277,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G200" t="s">
-        <v>1667</v>
+        <v>1680</v>
       </c>
       <c r="H200" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11240,10 +11306,10 @@
         <v>1337</v>
       </c>
       <c r="G201" t="s">
-        <v>1668</v>
+        <v>1681</v>
       </c>
       <c r="H201" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11263,13 +11329,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G202" t="s">
-        <v>1669</v>
+        <v>1682</v>
       </c>
       <c r="H202" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11289,13 +11355,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1378</v>
+        <v>1431</v>
       </c>
       <c r="G203" t="s">
-        <v>1670</v>
+        <v>1683</v>
       </c>
       <c r="H203" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11315,13 +11381,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="G204" t="s">
-        <v>1671</v>
+        <v>1684</v>
       </c>
       <c r="H204" t="s">
-        <v>1873</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11341,13 +11407,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="G205" t="s">
-        <v>1672</v>
+        <v>1685</v>
       </c>
       <c r="H205" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11367,13 +11433,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="G206" t="s">
-        <v>1673</v>
+        <v>1686</v>
       </c>
       <c r="H206" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11393,13 +11459,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="G207" t="s">
-        <v>1674</v>
+        <v>1687</v>
       </c>
       <c r="H207" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11419,13 +11485,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="G208" t="s">
-        <v>1675</v>
+        <v>1688</v>
       </c>
       <c r="H208" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11445,13 +11511,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="G209" t="s">
-        <v>1676</v>
+        <v>1689</v>
       </c>
       <c r="H209" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11474,10 +11540,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1677</v>
+        <v>1690</v>
       </c>
       <c r="H210" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11497,13 +11563,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G211" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
       <c r="H211" t="s">
-        <v>1877</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11523,13 +11589,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="G212" t="s">
-        <v>1679</v>
+        <v>1692</v>
       </c>
       <c r="H212" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11552,10 +11618,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="H213" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11575,13 +11641,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="G214" t="s">
-        <v>1680</v>
+        <v>1693</v>
       </c>
       <c r="H214" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11604,10 +11670,10 @@
         <v>1278</v>
       </c>
       <c r="G215" t="s">
-        <v>1681</v>
+        <v>1694</v>
       </c>
       <c r="H215" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11627,13 +11693,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="G216" t="s">
-        <v>1682</v>
+        <v>1695</v>
       </c>
       <c r="H216" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11653,13 +11719,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G217" t="s">
-        <v>1683</v>
+        <v>1696</v>
       </c>
       <c r="H217" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11679,13 +11745,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="G218" t="s">
-        <v>1684</v>
+        <v>1697</v>
       </c>
       <c r="H218" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11705,13 +11771,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G219" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="H219" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11734,10 +11800,10 @@
         <v>1350</v>
       </c>
       <c r="G220" t="s">
-        <v>1686</v>
+        <v>1699</v>
       </c>
       <c r="H220" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11757,13 +11823,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G221" t="s">
-        <v>1687</v>
+        <v>1700</v>
       </c>
       <c r="H221" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11789,7 +11855,7 @@
         <v>947</v>
       </c>
       <c r="H222" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11809,13 +11875,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="G223" t="s">
-        <v>1688</v>
+        <v>1701</v>
       </c>
       <c r="H223" t="s">
-        <v>1878</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11835,13 +11901,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="G224" t="s">
-        <v>1689</v>
+        <v>1702</v>
       </c>
       <c r="H224" t="s">
-        <v>1879</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11864,10 +11930,10 @@
         <v>1337</v>
       </c>
       <c r="G225" t="s">
-        <v>1690</v>
+        <v>1703</v>
       </c>
       <c r="H225" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11887,7 +11953,7 @@
         <v>1276</v>
       </c>
       <c r="H226" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11913,7 +11979,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11936,10 +12002,10 @@
         <v>1337</v>
       </c>
       <c r="G228" t="s">
-        <v>1691</v>
+        <v>1704</v>
       </c>
       <c r="H228" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11959,13 +12025,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="G229" t="s">
-        <v>1692</v>
+        <v>1705</v>
       </c>
       <c r="H229" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11985,13 +12051,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1294</v>
+        <v>1445</v>
       </c>
       <c r="G230" t="s">
-        <v>1693</v>
+        <v>1706</v>
       </c>
       <c r="H230" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -12017,7 +12083,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12040,10 +12106,10 @@
         <v>1276</v>
       </c>
       <c r="G232" t="s">
-        <v>1694</v>
+        <v>1707</v>
       </c>
       <c r="H232" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12063,13 +12129,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="G233" t="s">
-        <v>1695</v>
+        <v>1708</v>
       </c>
       <c r="H233" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12092,10 +12158,10 @@
         <v>1351</v>
       </c>
       <c r="G234" t="s">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="H234" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12115,13 +12181,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G235" t="s">
-        <v>1662</v>
+        <v>1675</v>
       </c>
       <c r="H235" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12141,13 +12207,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="G236" t="s">
-        <v>1697</v>
+        <v>1710</v>
       </c>
       <c r="H236" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12170,10 +12236,10 @@
         <v>1285</v>
       </c>
       <c r="G237" t="s">
-        <v>1698</v>
+        <v>1711</v>
       </c>
       <c r="H237" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12193,13 +12259,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="G238" t="s">
-        <v>1699</v>
+        <v>1712</v>
       </c>
       <c r="H238" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12219,13 +12285,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1444</v>
+        <v>1415</v>
       </c>
       <c r="G239" t="s">
-        <v>1700</v>
+        <v>1713</v>
       </c>
       <c r="H239" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12245,13 +12311,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="G240" t="s">
-        <v>1701</v>
+        <v>1714</v>
       </c>
       <c r="H240" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12274,10 +12340,10 @@
         <v>1337</v>
       </c>
       <c r="G241" t="s">
-        <v>1702</v>
+        <v>1715</v>
       </c>
       <c r="H241" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12300,10 +12366,10 @@
         <v>1350</v>
       </c>
       <c r="G242" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
       <c r="H242" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12323,13 +12389,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G243" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="H243" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12352,10 +12418,10 @@
         <v>1285</v>
       </c>
       <c r="G244" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H244" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12375,13 +12441,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G245" t="s">
-        <v>1703</v>
+        <v>1716</v>
       </c>
       <c r="H245" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12407,7 +12473,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12427,13 +12493,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1337</v>
+        <v>1450</v>
       </c>
       <c r="G247" t="s">
-        <v>1704</v>
+        <v>1717</v>
       </c>
       <c r="H247" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12453,13 +12519,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1343</v>
+        <v>1451</v>
       </c>
       <c r="G248" t="s">
-        <v>1705</v>
+        <v>1718</v>
       </c>
       <c r="H248" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12479,13 +12545,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="G249" t="s">
-        <v>1706</v>
+        <v>1719</v>
       </c>
       <c r="H249" t="s">
-        <v>1861</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12505,13 +12571,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G250" t="s">
-        <v>1707</v>
+        <v>1720</v>
       </c>
       <c r="H250" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12531,13 +12597,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G251" t="s">
-        <v>1708</v>
+        <v>1721</v>
       </c>
       <c r="H251" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12560,10 +12626,10 @@
         <v>1285</v>
       </c>
       <c r="G252" t="s">
-        <v>1709</v>
+        <v>1722</v>
       </c>
       <c r="H252" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12589,7 +12655,7 @@
         <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12615,7 +12681,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12635,13 +12701,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G255" t="s">
-        <v>1710</v>
+        <v>1723</v>
       </c>
       <c r="H255" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12661,13 +12727,13 @@
         <v>1279</v>
       </c>
       <c r="F256" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="G256" t="s">
-        <v>1711</v>
+        <v>1724</v>
       </c>
       <c r="H256" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12687,13 +12753,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="G257" t="s">
-        <v>1712</v>
+        <v>1725</v>
       </c>
       <c r="H257" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12713,13 +12779,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="G258" t="s">
-        <v>1713</v>
+        <v>1726</v>
       </c>
       <c r="H258" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12745,7 +12811,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12765,13 +12831,13 @@
         <v>1279</v>
       </c>
       <c r="F260" t="s">
-        <v>1294</v>
+        <v>1445</v>
       </c>
       <c r="G260" t="s">
-        <v>1693</v>
+        <v>1706</v>
       </c>
       <c r="H260" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12791,13 +12857,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1342</v>
+        <v>1456</v>
       </c>
       <c r="G261" t="s">
-        <v>1714</v>
+        <v>1727</v>
       </c>
       <c r="H261" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12817,13 +12883,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G262" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H262" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12846,10 +12912,10 @@
         <v>1285</v>
       </c>
       <c r="G263" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H263" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12872,10 +12938,10 @@
         <v>1285</v>
       </c>
       <c r="G264" t="s">
-        <v>1591</v>
+        <v>1604</v>
       </c>
       <c r="H264" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12895,13 +12961,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
       <c r="G265" t="s">
-        <v>1715</v>
+        <v>1728</v>
       </c>
       <c r="H265" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12921,13 +12987,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G266" t="s">
-        <v>1716</v>
+        <v>1729</v>
       </c>
       <c r="H266" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12947,13 +13013,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="G267" t="s">
-        <v>1717</v>
+        <v>1730</v>
       </c>
       <c r="H267" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12973,13 +13039,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="G268" t="s">
-        <v>1718</v>
+        <v>1731</v>
       </c>
       <c r="H268" t="s">
-        <v>1866</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12999,13 +13065,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
       <c r="G269" t="s">
-        <v>1719</v>
+        <v>1732</v>
       </c>
       <c r="H269" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -13025,13 +13091,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1341</v>
       </c>
       <c r="G270" t="s">
-        <v>1720</v>
+        <v>1733</v>
       </c>
       <c r="H270" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13051,13 +13117,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G271" t="s">
-        <v>1721</v>
+        <v>1734</v>
       </c>
       <c r="H271" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -13077,13 +13143,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="G272" t="s">
-        <v>1722</v>
+        <v>1735</v>
       </c>
       <c r="H272" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13103,13 +13169,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="G273" t="s">
-        <v>1723</v>
+        <v>1736</v>
       </c>
       <c r="H273" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13129,13 +13195,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G274" t="s">
-        <v>1724</v>
+        <v>1737</v>
       </c>
       <c r="H274" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13155,13 +13221,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="G275" t="s">
-        <v>1725</v>
+        <v>1738</v>
       </c>
       <c r="H275" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13184,10 +13250,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="H276" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13207,13 +13273,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="G277" t="s">
-        <v>1726</v>
+        <v>1739</v>
       </c>
       <c r="H277" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13233,13 +13299,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="G278" t="s">
-        <v>1727</v>
+        <v>1740</v>
       </c>
       <c r="H278" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13259,13 +13325,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1285</v>
+        <v>1465</v>
       </c>
       <c r="G279" t="s">
-        <v>1561</v>
+        <v>1741</v>
       </c>
       <c r="H279" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13285,13 +13351,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1459</v>
+        <v>1422</v>
       </c>
       <c r="G280" t="s">
-        <v>1728</v>
+        <v>1742</v>
       </c>
       <c r="H280" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13310,8 +13376,14 @@
       <c r="E281" t="s">
         <v>1276</v>
       </c>
+      <c r="F281" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1022</v>
+      </c>
       <c r="H281" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13331,13 +13403,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G282" t="s">
-        <v>1729</v>
+        <v>1743</v>
       </c>
       <c r="H282" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13360,10 +13432,10 @@
         <v>1278</v>
       </c>
       <c r="G283" t="s">
-        <v>1730</v>
+        <v>1744</v>
       </c>
       <c r="H283" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13383,13 +13455,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="G284" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="H284" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13409,13 +13481,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="G285" t="s">
-        <v>1732</v>
+        <v>1746</v>
       </c>
       <c r="H285" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13435,13 +13507,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G286" t="s">
-        <v>1733</v>
+        <v>1747</v>
       </c>
       <c r="H286" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13461,13 +13533,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1448</v>
+        <v>1339</v>
       </c>
       <c r="G287" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
       <c r="H287" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13486,8 +13558,14 @@
       <c r="E288" t="s">
         <v>1276</v>
       </c>
+      <c r="F288" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G288" t="s">
+        <v>983</v>
+      </c>
       <c r="H288" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13507,13 +13585,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="G289" t="s">
-        <v>1735</v>
+        <v>1749</v>
       </c>
       <c r="H289" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13536,10 +13614,10 @@
         <v>1351</v>
       </c>
       <c r="G290" t="s">
-        <v>1736</v>
+        <v>1750</v>
       </c>
       <c r="H290" t="s">
-        <v>1866</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13562,10 +13640,10 @@
         <v>1285</v>
       </c>
       <c r="G291" t="s">
-        <v>1737</v>
+        <v>1751</v>
       </c>
       <c r="H291" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13585,13 +13663,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G292" t="s">
-        <v>1738</v>
+        <v>1752</v>
       </c>
       <c r="H292" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13614,10 +13692,10 @@
         <v>1351</v>
       </c>
       <c r="G293" t="s">
-        <v>1739</v>
+        <v>1753</v>
       </c>
       <c r="H293" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13643,7 +13721,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13669,7 +13747,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13689,13 +13767,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G296" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
       <c r="H296" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13718,10 +13796,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1740</v>
+        <v>1754</v>
       </c>
       <c r="H297" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13741,13 +13819,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1452</v>
+        <v>1469</v>
       </c>
       <c r="G298" t="s">
-        <v>1741</v>
+        <v>1755</v>
       </c>
       <c r="H298" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13773,7 +13851,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13792,8 +13870,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13816,10 +13900,10 @@
         <v>1285</v>
       </c>
       <c r="G301" t="s">
-        <v>1506</v>
+        <v>1516</v>
       </c>
       <c r="H301" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13839,13 +13923,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G302" t="s">
-        <v>1543</v>
+        <v>1552</v>
       </c>
       <c r="H302" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13865,13 +13949,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
       <c r="G303" t="s">
-        <v>1742</v>
+        <v>1756</v>
       </c>
       <c r="H303" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13891,13 +13975,13 @@
         <v>1322</v>
       </c>
       <c r="F304" t="s">
-        <v>1278</v>
+        <v>1351</v>
       </c>
       <c r="G304" t="s">
-        <v>1000</v>
+        <v>1757</v>
       </c>
       <c r="H304" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13917,13 +14001,13 @@
         <v>1279</v>
       </c>
       <c r="F305" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
       <c r="G305" t="s">
-        <v>1743</v>
+        <v>1758</v>
       </c>
       <c r="H305" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13943,13 +14027,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1459</v>
+        <v>1422</v>
       </c>
       <c r="G306" t="s">
-        <v>1744</v>
+        <v>1759</v>
       </c>
       <c r="H306" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13975,7 +14059,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13995,13 +14079,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G308" t="s">
-        <v>1745</v>
+        <v>1760</v>
       </c>
       <c r="H308" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -14027,7 +14111,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -14053,7 +14137,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -14073,13 +14157,13 @@
         <v>1285</v>
       </c>
       <c r="F311" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G311" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H311" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14099,13 +14183,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G312" t="s">
-        <v>1746</v>
+        <v>1761</v>
       </c>
       <c r="H312" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14131,7 +14215,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14157,7 +14241,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14177,13 +14261,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1465</v>
+        <v>1473</v>
       </c>
       <c r="G315" t="s">
-        <v>1747</v>
+        <v>1762</v>
       </c>
       <c r="H315" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14206,10 +14290,10 @@
         <v>1337</v>
       </c>
       <c r="G316" t="s">
-        <v>1748</v>
+        <v>1763</v>
       </c>
       <c r="H316" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14229,13 +14313,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G317" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
       <c r="H317" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14258,10 +14342,10 @@
         <v>1351</v>
       </c>
       <c r="G318" t="s">
-        <v>1522</v>
+        <v>1532</v>
       </c>
       <c r="H318" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14280,8 +14364,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14304,10 +14394,10 @@
         <v>1337</v>
       </c>
       <c r="G320" t="s">
-        <v>1749</v>
+        <v>1764</v>
       </c>
       <c r="H320" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14327,13 +14417,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1358</v>
+        <v>1474</v>
       </c>
       <c r="G321" t="s">
-        <v>1750</v>
+        <v>1765</v>
       </c>
       <c r="H321" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14356,10 +14446,10 @@
         <v>1285</v>
       </c>
       <c r="G322" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H322" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14382,10 +14472,10 @@
         <v>1285</v>
       </c>
       <c r="G323" t="s">
-        <v>1751</v>
+        <v>1766</v>
       </c>
       <c r="H323" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14405,13 +14495,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G324" t="s">
-        <v>1752</v>
+        <v>1767</v>
       </c>
       <c r="H324" t="s">
-        <v>1865</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14437,7 +14527,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14457,13 +14547,13 @@
         <v>1285</v>
       </c>
       <c r="F326" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G326" t="s">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="H326" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14483,13 +14573,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G327" t="s">
-        <v>1754</v>
+        <v>1769</v>
       </c>
       <c r="H327" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14509,13 +14599,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G328" t="s">
-        <v>1755</v>
+        <v>1770</v>
       </c>
       <c r="H328" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14535,13 +14625,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1466</v>
+        <v>1475</v>
       </c>
       <c r="G329" t="s">
-        <v>1756</v>
+        <v>1771</v>
       </c>
       <c r="H329" t="s">
-        <v>1880</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14561,13 +14651,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="G330" t="s">
-        <v>1757</v>
+        <v>1772</v>
       </c>
       <c r="H330" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14587,13 +14677,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1468</v>
+        <v>1477</v>
       </c>
       <c r="G331" t="s">
-        <v>1758</v>
+        <v>1773</v>
       </c>
       <c r="H331" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14616,10 +14706,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="H332" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14639,13 +14729,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1469</v>
+        <v>1478</v>
       </c>
       <c r="G333" t="s">
-        <v>1759</v>
+        <v>1774</v>
       </c>
       <c r="H333" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14665,13 +14755,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G334" t="s">
-        <v>1760</v>
+        <v>1775</v>
       </c>
       <c r="H334" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14691,13 +14781,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G335" t="s">
-        <v>1761</v>
+        <v>1776</v>
       </c>
       <c r="H335" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14720,10 +14810,10 @@
         <v>1337</v>
       </c>
       <c r="G336" t="s">
-        <v>1762</v>
+        <v>1777</v>
       </c>
       <c r="H336" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14743,13 +14833,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1470</v>
+        <v>1479</v>
       </c>
       <c r="G337" t="s">
-        <v>1763</v>
+        <v>1778</v>
       </c>
       <c r="H337" t="s">
-        <v>1865</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14769,13 +14859,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1465</v>
+        <v>1383</v>
       </c>
       <c r="G338" t="s">
-        <v>1747</v>
+        <v>1779</v>
       </c>
       <c r="H338" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14795,13 +14885,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1471</v>
+        <v>1480</v>
       </c>
       <c r="G339" t="s">
-        <v>1764</v>
+        <v>1780</v>
       </c>
       <c r="H339" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14824,10 +14914,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1765</v>
+        <v>1781</v>
       </c>
       <c r="H340" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14847,13 +14937,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G341" t="s">
-        <v>1766</v>
+        <v>1782</v>
       </c>
       <c r="H341" t="s">
-        <v>1881</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14873,13 +14963,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G342" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="H342" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14899,13 +14989,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1470</v>
+        <v>1479</v>
       </c>
       <c r="G343" t="s">
-        <v>1767</v>
+        <v>1783</v>
       </c>
       <c r="H343" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14925,13 +15015,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1472</v>
+        <v>1481</v>
       </c>
       <c r="G344" t="s">
-        <v>1768</v>
+        <v>1784</v>
       </c>
       <c r="H344" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14951,13 +15041,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1380</v>
+        <v>1469</v>
       </c>
       <c r="G345" t="s">
-        <v>1769</v>
+        <v>1785</v>
       </c>
       <c r="H345" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14977,13 +15067,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1473</v>
+        <v>1482</v>
       </c>
       <c r="G346" t="s">
-        <v>1770</v>
+        <v>1786</v>
       </c>
       <c r="H346" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -15009,7 +15099,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -15028,8 +15118,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -15055,7 +15151,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15075,13 +15171,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G350" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="H350" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15101,13 +15197,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="G351" t="s">
-        <v>1771</v>
+        <v>1787</v>
       </c>
       <c r="H351" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15127,13 +15223,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1415</v>
+        <v>1484</v>
       </c>
       <c r="G352" t="s">
-        <v>1772</v>
+        <v>1788</v>
       </c>
       <c r="H352" t="s">
-        <v>1869</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15153,13 +15249,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G353" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H353" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15179,13 +15275,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1475</v>
+        <v>1350</v>
       </c>
       <c r="G354" t="s">
-        <v>1773</v>
+        <v>1789</v>
       </c>
       <c r="H354" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15208,10 +15304,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1774</v>
+        <v>1790</v>
       </c>
       <c r="H355" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15237,7 +15333,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15257,13 +15353,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1476</v>
+        <v>1485</v>
       </c>
       <c r="G357" t="s">
-        <v>1775</v>
+        <v>1791</v>
       </c>
       <c r="H357" t="s">
-        <v>1882</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15283,13 +15379,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G358" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="H358" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15309,13 +15405,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G359" t="s">
-        <v>1776</v>
+        <v>1792</v>
       </c>
       <c r="H359" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15341,7 +15437,7 @@
         <v>1199</v>
       </c>
       <c r="H360" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15361,13 +15457,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1432</v>
+        <v>1378</v>
       </c>
       <c r="G361" t="s">
-        <v>1777</v>
+        <v>1577</v>
       </c>
       <c r="H361" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15387,13 +15483,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G362" t="s">
-        <v>1778</v>
+        <v>1793</v>
       </c>
       <c r="H362" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15413,13 +15509,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1477</v>
+        <v>1486</v>
       </c>
       <c r="G363" t="s">
-        <v>1779</v>
+        <v>1794</v>
       </c>
       <c r="H363" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15439,13 +15535,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1380</v>
+        <v>1454</v>
       </c>
       <c r="G364" t="s">
-        <v>1780</v>
+        <v>1795</v>
       </c>
       <c r="H364" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15465,13 +15561,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="G365" t="s">
-        <v>1781</v>
+        <v>1796</v>
       </c>
       <c r="H365" t="s">
-        <v>1883</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15494,10 +15590,10 @@
         <v>1337</v>
       </c>
       <c r="G366" t="s">
-        <v>1782</v>
+        <v>1797</v>
       </c>
       <c r="H366" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15517,13 +15613,13 @@
         <v>1279</v>
       </c>
       <c r="F367" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="G367" t="s">
-        <v>1783</v>
+        <v>1798</v>
       </c>
       <c r="H367" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15546,10 +15642,10 @@
         <v>1337</v>
       </c>
       <c r="G368" t="s">
-        <v>1784</v>
+        <v>1799</v>
       </c>
       <c r="H368" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15569,13 +15665,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="G369" t="s">
-        <v>1785</v>
+        <v>1800</v>
       </c>
       <c r="H369" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15594,14 +15690,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1786</v>
-      </c>
       <c r="H370" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15621,13 +15711,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G371" t="s">
-        <v>1787</v>
+        <v>1801</v>
       </c>
       <c r="H371" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15647,13 +15737,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G372" t="s">
-        <v>1788</v>
+        <v>1802</v>
       </c>
       <c r="H372" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15673,13 +15763,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1278</v>
+        <v>1378</v>
       </c>
       <c r="G373" t="s">
-        <v>1789</v>
+        <v>1803</v>
       </c>
       <c r="H373" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15699,7 +15789,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15725,7 +15815,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15745,13 +15835,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
       <c r="G376" t="s">
-        <v>1790</v>
+        <v>1804</v>
       </c>
       <c r="H376" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15771,13 +15861,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="G377" t="s">
-        <v>1791</v>
+        <v>1805</v>
       </c>
       <c r="H377" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15800,10 +15890,10 @@
         <v>1278</v>
       </c>
       <c r="G378" t="s">
-        <v>1792</v>
+        <v>1806</v>
       </c>
       <c r="H378" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15823,13 +15913,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1481</v>
+        <v>1490</v>
       </c>
       <c r="G379" t="s">
-        <v>1793</v>
+        <v>1807</v>
       </c>
       <c r="H379" t="s">
-        <v>1867</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15855,7 +15945,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15875,13 +15965,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G381" t="s">
-        <v>1794</v>
+        <v>1808</v>
       </c>
       <c r="H381" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15901,13 +15991,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1482</v>
+        <v>1491</v>
       </c>
       <c r="G382" t="s">
-        <v>1795</v>
+        <v>1809</v>
       </c>
       <c r="H382" t="s">
-        <v>1884</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15927,13 +16017,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1483</v>
+        <v>1492</v>
       </c>
       <c r="G383" t="s">
-        <v>1796</v>
+        <v>1810</v>
       </c>
       <c r="H383" t="s">
-        <v>1875</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15953,13 +16043,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1484</v>
+        <v>1493</v>
       </c>
       <c r="G384" t="s">
-        <v>1797</v>
+        <v>1811</v>
       </c>
       <c r="H384" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15979,13 +16069,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G385" t="s">
-        <v>1752</v>
+        <v>1767</v>
       </c>
       <c r="H385" t="s">
-        <v>1874</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -16005,13 +16095,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G386" t="s">
-        <v>1798</v>
+        <v>1812</v>
       </c>
       <c r="H386" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16031,13 +16121,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G387" t="s">
-        <v>1799</v>
+        <v>1813</v>
       </c>
       <c r="H387" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -16063,7 +16153,7 @@
         <v>1089</v>
       </c>
       <c r="H388" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16086,10 +16176,10 @@
         <v>1337</v>
       </c>
       <c r="G389" t="s">
-        <v>1762</v>
+        <v>1777</v>
       </c>
       <c r="H389" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16109,13 +16199,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1485</v>
+        <v>1494</v>
       </c>
       <c r="G390" t="s">
-        <v>1800</v>
+        <v>1814</v>
       </c>
       <c r="H390" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16135,13 +16225,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1368</v>
+        <v>1495</v>
       </c>
       <c r="G391" t="s">
-        <v>1801</v>
+        <v>1815</v>
       </c>
       <c r="H391" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16164,10 +16254,10 @@
         <v>1337</v>
       </c>
       <c r="G392" t="s">
-        <v>1802</v>
+        <v>1816</v>
       </c>
       <c r="H392" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16187,13 +16277,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="G393" t="s">
-        <v>1803</v>
+        <v>1817</v>
       </c>
       <c r="H393" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16213,13 +16303,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1342</v>
+        <v>1456</v>
       </c>
       <c r="G394" t="s">
-        <v>1804</v>
+        <v>1818</v>
       </c>
       <c r="H394" t="s">
-        <v>1869</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16242,10 +16332,10 @@
         <v>1337</v>
       </c>
       <c r="G395" t="s">
-        <v>1782</v>
+        <v>1797</v>
       </c>
       <c r="H395" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16268,10 +16358,10 @@
         <v>1337</v>
       </c>
       <c r="G396" t="s">
-        <v>1805</v>
+        <v>1819</v>
       </c>
       <c r="H396" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16291,13 +16381,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1448</v>
+        <v>1339</v>
       </c>
       <c r="G397" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
       <c r="H397" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16323,7 +16413,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16343,13 +16433,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G399" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
       <c r="H399" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16369,13 +16459,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1487</v>
+        <v>1396</v>
       </c>
       <c r="G400" t="s">
-        <v>1806</v>
+        <v>1820</v>
       </c>
       <c r="H400" t="s">
-        <v>1885</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16395,13 +16485,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1447</v>
+        <v>1496</v>
       </c>
       <c r="G401" t="s">
-        <v>1807</v>
+        <v>1821</v>
       </c>
       <c r="H401" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16421,13 +16511,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1432</v>
+        <v>1455</v>
       </c>
       <c r="G402" t="s">
-        <v>1808</v>
+        <v>1822</v>
       </c>
       <c r="H402" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16447,13 +16537,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G403" t="s">
-        <v>1809</v>
+        <v>1823</v>
       </c>
       <c r="H403" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16473,13 +16563,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G404" t="s">
-        <v>1810</v>
+        <v>1824</v>
       </c>
       <c r="H404" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16499,13 +16589,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G405" t="s">
-        <v>1811</v>
+        <v>1825</v>
       </c>
       <c r="H405" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16525,13 +16615,13 @@
         <v>1285</v>
       </c>
       <c r="F406" t="s">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="G406" t="s">
-        <v>1812</v>
+        <v>1826</v>
       </c>
       <c r="H406" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16551,13 +16641,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1489</v>
+        <v>1498</v>
       </c>
       <c r="G407" t="s">
-        <v>1813</v>
+        <v>1827</v>
       </c>
       <c r="H407" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16577,13 +16667,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1414</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1828</v>
       </c>
       <c r="H408" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16603,13 +16693,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G409" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H409" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16635,7 +16725,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16655,13 +16745,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1490</v>
+        <v>1499</v>
       </c>
       <c r="G411" t="s">
-        <v>1814</v>
+        <v>1829</v>
       </c>
       <c r="H411" t="s">
-        <v>1872</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16684,10 +16774,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="H412" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16707,13 +16797,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="G413" t="s">
-        <v>1815</v>
+        <v>1830</v>
       </c>
       <c r="H413" t="s">
-        <v>1871</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16733,13 +16823,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G414" t="s">
-        <v>1816</v>
+        <v>1831</v>
       </c>
       <c r="H414" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16759,13 +16849,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G415" t="s">
-        <v>1817</v>
+        <v>1832</v>
       </c>
       <c r="H415" t="s">
-        <v>1886</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16788,10 +16878,10 @@
         <v>1351</v>
       </c>
       <c r="G416" t="s">
-        <v>1818</v>
+        <v>1833</v>
       </c>
       <c r="H416" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16817,7 +16907,7 @@
         <v>987</v>
       </c>
       <c r="H417" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16837,13 +16927,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G418" t="s">
-        <v>1599</v>
+        <v>1834</v>
       </c>
       <c r="H418" t="s">
-        <v>1873</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16863,13 +16953,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G419" t="s">
-        <v>1752</v>
+        <v>1767</v>
       </c>
       <c r="H419" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16889,13 +16979,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1491</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="s">
-        <v>1819</v>
+        <v>1835</v>
       </c>
       <c r="H420" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16915,13 +17005,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G421" t="s">
-        <v>1820</v>
+        <v>1836</v>
       </c>
       <c r="H421" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16941,13 +17031,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G422" t="s">
-        <v>1752</v>
+        <v>1767</v>
       </c>
       <c r="H422" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16970,10 +17060,10 @@
         <v>1337</v>
       </c>
       <c r="G423" t="s">
-        <v>1821</v>
+        <v>1837</v>
       </c>
       <c r="H423" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16999,7 +17089,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -17022,10 +17112,10 @@
         <v>1337</v>
       </c>
       <c r="G425" t="s">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="H425" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -17045,13 +17135,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="G426" t="s">
-        <v>1823</v>
+        <v>1839</v>
       </c>
       <c r="H426" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17071,13 +17161,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G427" t="s">
-        <v>1824</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17097,13 +17187,13 @@
         <v>1279</v>
       </c>
       <c r="F428" t="s">
-        <v>1294</v>
+        <v>1445</v>
       </c>
       <c r="G428" t="s">
-        <v>1693</v>
+        <v>1706</v>
       </c>
       <c r="H428" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17126,10 +17216,10 @@
         <v>1278</v>
       </c>
       <c r="G429" t="s">
-        <v>1825</v>
+        <v>1840</v>
       </c>
       <c r="H429" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17149,13 +17239,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G430" t="s">
-        <v>1826</v>
+        <v>1841</v>
       </c>
       <c r="H430" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17178,10 +17268,10 @@
         <v>1337</v>
       </c>
       <c r="G431" t="s">
-        <v>1827</v>
+        <v>1842</v>
       </c>
       <c r="H431" t="s">
-        <v>1887</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17204,10 +17294,10 @@
         <v>1337</v>
       </c>
       <c r="G432" t="s">
-        <v>1828</v>
+        <v>1843</v>
       </c>
       <c r="H432" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17227,13 +17317,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G433" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
       <c r="H433" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17253,13 +17343,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1493</v>
+        <v>1502</v>
       </c>
       <c r="G434" t="s">
-        <v>1829</v>
+        <v>1844</v>
       </c>
       <c r="H434" t="s">
-        <v>1883</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17279,13 +17369,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1465</v>
+        <v>1503</v>
       </c>
       <c r="G435" t="s">
-        <v>1830</v>
+        <v>1845</v>
       </c>
       <c r="H435" t="s">
-        <v>1874</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17305,13 +17395,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G436" t="s">
-        <v>1831</v>
+        <v>1846</v>
       </c>
       <c r="H436" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17330,14 +17420,8 @@
       <c r="E437" t="s">
         <v>1294</v>
       </c>
-      <c r="F437" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1832</v>
-      </c>
       <c r="H437" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17363,7 +17447,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17383,13 +17467,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G439" t="s">
-        <v>1833</v>
+        <v>1847</v>
       </c>
       <c r="H439" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17409,13 +17493,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1447</v>
+        <v>1496</v>
       </c>
       <c r="G440" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="H440" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17435,13 +17519,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1494</v>
+        <v>1504</v>
       </c>
       <c r="G441" t="s">
-        <v>1835</v>
+        <v>1849</v>
       </c>
       <c r="H441" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17461,13 +17545,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G442" t="s">
-        <v>1836</v>
+        <v>1850</v>
       </c>
       <c r="H442" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17487,13 +17571,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1495</v>
+        <v>1400</v>
       </c>
       <c r="G443" t="s">
-        <v>1837</v>
+        <v>1851</v>
       </c>
       <c r="H443" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17513,13 +17597,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G444" t="s">
-        <v>1838</v>
+        <v>1852</v>
       </c>
       <c r="H444" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17539,13 +17623,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
       <c r="G445" t="s">
-        <v>1839</v>
+        <v>1853</v>
       </c>
       <c r="H445" t="s">
-        <v>1888</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17565,13 +17649,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="G446" t="s">
-        <v>1840</v>
+        <v>1854</v>
       </c>
       <c r="H446" t="s">
-        <v>1862</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17591,13 +17675,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G447" t="s">
-        <v>1841</v>
+        <v>1855</v>
       </c>
       <c r="H447" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17620,10 +17704,10 @@
         <v>1351</v>
       </c>
       <c r="G448" t="s">
-        <v>1842</v>
+        <v>1856</v>
       </c>
       <c r="H448" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17643,13 +17727,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="G449" t="s">
-        <v>1843</v>
+        <v>1857</v>
       </c>
       <c r="H449" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17669,13 +17753,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1368</v>
+        <v>1404</v>
       </c>
       <c r="G450" t="s">
-        <v>1586</v>
+        <v>1858</v>
       </c>
       <c r="H450" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17695,13 +17779,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1352</v>
+        <v>1506</v>
       </c>
       <c r="G451" t="s">
-        <v>1844</v>
+        <v>1859</v>
       </c>
       <c r="H451" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17721,13 +17805,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="G452" t="s">
-        <v>1845</v>
+        <v>1860</v>
       </c>
       <c r="H452" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17747,13 +17831,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1497</v>
+        <v>1507</v>
       </c>
       <c r="G453" t="s">
-        <v>1846</v>
+        <v>1861</v>
       </c>
       <c r="H453" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17773,13 +17857,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1498</v>
+        <v>1508</v>
       </c>
       <c r="G454" t="s">
-        <v>1847</v>
+        <v>1862</v>
       </c>
       <c r="H454" t="s">
-        <v>1875</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17799,13 +17883,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1499</v>
+        <v>1509</v>
       </c>
       <c r="G455" t="s">
-        <v>1848</v>
+        <v>1863</v>
       </c>
       <c r="H455" t="s">
-        <v>1880</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17825,13 +17909,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="G456" t="s">
-        <v>1849</v>
+        <v>1864</v>
       </c>
       <c r="H456" t="s">
-        <v>1878</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17851,13 +17935,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1501</v>
+        <v>1511</v>
       </c>
       <c r="G457" t="s">
-        <v>1850</v>
+        <v>1865</v>
       </c>
       <c r="H457" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17880,10 +17964,10 @@
         <v>1285</v>
       </c>
       <c r="G458" t="s">
-        <v>1851</v>
+        <v>1866</v>
       </c>
       <c r="H458" t="s">
-        <v>1889</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17903,13 +17987,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="G459" t="s">
-        <v>1852</v>
+        <v>1867</v>
       </c>
       <c r="H459" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17929,13 +18013,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G460" t="s">
-        <v>1853</v>
+        <v>1868</v>
       </c>
       <c r="H460" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17955,13 +18039,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1503</v>
+        <v>1513</v>
       </c>
       <c r="G461" t="s">
-        <v>1854</v>
+        <v>1869</v>
       </c>
       <c r="H461" t="s">
-        <v>1870</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17981,13 +18065,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G462" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="H462" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -18007,13 +18091,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1472</v>
       </c>
       <c r="G463" t="s">
-        <v>1693</v>
+        <v>1870</v>
       </c>
       <c r="H463" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/lda-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1890">
   <si>
     <t>id</t>
   </si>
@@ -4030,532 +4030,484 @@
     <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|FOOD|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
   </si>
   <si>
     <t>SERVICE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|FOOD|FOOD|AMBIENCE|SERVICE|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|PRICES</t>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
     <t>place|like</t>
@@ -4633,7 +4585,7 @@
     <t>prix|fixe|menu|penny|quantity|quality</t>
   </si>
   <si>
-    <t>fresh|food|filled|much|continually|refilled|tasty|$6!-</t>
+    <t>fresh|food|filled|much|continually|refilled|tasty|$6</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4723,7 +4675,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>good</t>
@@ -4801,7 +4753,7 @@
     <t>pretty</t>
   </si>
   <si>
-    <t>price|rice|dessert|$8.00!-</t>
+    <t>price|rice|dessert|$8.00</t>
   </si>
   <si>
     <t>made|price|always|well|selection|wine|rice</t>
@@ -4972,13 +4924,13 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|order|$18!-</t>
+    <t>food|order|$18</t>
   </si>
   <si>
     <t>great|service|price|food|rice</t>
   </si>
   <si>
-    <t>price|dish|rice|rice|come|congee|noodle|reasonable|$3-6!-</t>
+    <t>price|dish|rice|rice|come|congee|noodle|reasonable|$3-6</t>
   </si>
   <si>
     <t>great|high|well|take</t>
@@ -5071,7 +5023,7 @@
     <t>restaurant|price|list|rest|wine|rice</t>
   </si>
   <si>
-    <t>list|selection|wine|listed|average|$70!-|$30!-</t>
+    <t>list|selection|wine|listed|average|$70|$30</t>
   </si>
   <si>
     <t>service|price|rice|would</t>
@@ -5194,7 +5146,7 @@
     <t>great|cheap|food</t>
   </si>
   <si>
-    <t>chip|come|like|$7!-</t>
+    <t>chip|come|like|$7</t>
   </si>
   <si>
     <t>sitting|uncomfortable|wooden</t>
@@ -5209,7 +5161,7 @@
     <t>good|high|price|though|food|rice</t>
   </si>
   <si>
-    <t>good|price|though|rice|lobster|$24!-</t>
+    <t>good|price|though|rice|lobster|$24</t>
   </si>
   <si>
     <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
@@ -5221,7 +5173,7 @@
     <t>cheap|food</t>
   </si>
   <si>
-    <t>great|delight|$10!-</t>
+    <t>great|delight|$10</t>
   </si>
   <si>
     <t>price|list|wine|rice</t>
@@ -5311,7 +5263,7 @@
     <t>well|place</t>
   </si>
   <si>
-    <t>great|music|like|100 dollar!-</t>
+    <t>great|music|like|100 dollar</t>
   </si>
   <si>
     <t>find</t>
@@ -5323,13 +5275,13 @@
     <t>delight|place</t>
   </si>
   <si>
-    <t>wonderful|$*!-</t>
+    <t>wonderful|$*</t>
   </si>
   <si>
     <t>delight|atmosphere</t>
   </si>
   <si>
-    <t>great|great|homey|setting|vanilla|music|recommend|$8.50!-</t>
+    <t>great|great|homey|setting|vanilla|music|recommend|$8.50</t>
   </si>
   <si>
     <t>good|request|lady|take|music|taste|moreover|outrageously</t>
@@ -5455,10 +5407,10 @@
     <t>price|food|rice|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>price|chip|fish|rice|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>price|chip|fish|rice|$15</t>
   </si>
   <si>
     <t>restaurant|city|york|rest|warm</t>
@@ -5467,7 +5419,7 @@
     <t>setting|like</t>
   </si>
   <si>
-    <t>good|meal|though|$60!-</t>
+    <t>good|meal|though|$60</t>
   </si>
   <si>
     <t>away|hidden|place</t>
@@ -5482,13 +5434,13 @@
     <t>season|charge</t>
   </si>
   <si>
-    <t>dinner|manhattan|feet|$400.00!-</t>
+    <t>dinner|manhattan|feet|$400.00</t>
   </si>
   <si>
     <t>garden|area</t>
   </si>
   <si>
-    <t>bland|$11!-</t>
+    <t>bland|$11</t>
   </si>
   <si>
     <t>good|food|place</t>
@@ -5497,7 +5449,7 @@
     <t>high|highly|place|recommend</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>view|river|nyc</t>
@@ -5533,13 +5485,13 @@
     <t>pretty|atmosphere</t>
   </si>
   <si>
-    <t>service|price|dish|rice|average|$10!-</t>
+    <t>service|price|dish|rice|average|$10</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>wine|$500!-</t>
+    <t>wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5554,13 +5506,13 @@
     <t>high|highly</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|$55</t>
   </si>
   <si>
     <t>supposed|good|left|empy|food|would</t>
@@ -5575,10 +5527,10 @@
     <t>good|fresh|food</t>
   </si>
   <si>
-    <t>restaurant|instead|price|rest|place|rice|rice|would|$25!-</t>
-  </si>
-  <si>
-    <t>food|place|$!-</t>
+    <t>restaurant|instead|price|rest|place|rice|rice|would|$25</t>
+  </si>
+  <si>
+    <t>food|place|$</t>
   </si>
   <si>
     <t>lunch|buffet</t>
@@ -5587,7 +5539,7 @@
     <t>place|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>restaurant|city|rest|romantic</t>
@@ -5596,13 +5548,13 @@
     <t>restaurant|city|rest|sushi|romantic</t>
   </si>
   <si>
-    <t>sake|wonderful|$29!-</t>
+    <t>sake|wonderful|$29</t>
   </si>
   <si>
     <t>great|good|price|rice|reasonable</t>
   </si>
   <si>
-    <t>service|well|$500!-</t>
+    <t>service|well|$500</t>
   </si>
   <si>
     <t>great|good|fresh|service|meal|salad</t>
@@ -5611,7 +5563,7 @@
     <t>good|high|price|food|rice|come|would</t>
   </si>
   <si>
-    <t>restaurant|bland|taste|fish|rest|$24!-</t>
+    <t>restaurant|bland|taste|fish|rest|$24</t>
   </si>
   <si>
     <t>come</t>
@@ -5620,7 +5572,7 @@
     <t>list|reasonable|would|listed</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>price|place|rice|average</t>
@@ -6138,10 +6090,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="H2" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6167,7 +6119,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6190,10 +6142,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="H4" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6213,13 +6165,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6242,10 +6194,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="H6" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6268,10 +6220,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="H7" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6294,10 +6246,10 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="H8" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6320,10 +6272,10 @@
         <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="H9" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6346,10 +6298,10 @@
         <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="H10" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6372,10 +6324,10 @@
         <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="H11" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6395,13 +6347,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="H12" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6421,13 +6373,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="G13" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="H13" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6450,10 +6402,10 @@
         <v>1346</v>
       </c>
       <c r="G14" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="H14" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6479,7 +6431,7 @@
         <v>1089</v>
       </c>
       <c r="H15" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6502,10 +6454,10 @@
         <v>1347</v>
       </c>
       <c r="G16" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="H16" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6528,10 +6480,10 @@
         <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="H17" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6554,10 +6506,10 @@
         <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="H18" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6583,7 +6535,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6603,13 +6555,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G20" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="H20" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6629,13 +6581,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6655,13 +6607,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G22" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="H22" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6681,13 +6633,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G23" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="H23" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6707,13 +6659,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G24" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="H24" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6739,7 +6691,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6759,13 +6711,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="H26" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6785,13 +6737,13 @@
         <v>1277</v>
       </c>
       <c r="F27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G27" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="H27" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6811,13 +6763,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
       <c r="G28" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="H28" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6837,13 +6789,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G29" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="H29" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6863,13 +6815,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G30" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="H30" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6889,13 +6841,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G31" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="H31" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6915,13 +6867,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G32" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="H32" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6941,13 +6893,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G33" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="H33" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6967,13 +6919,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="G34" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="H34" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6996,10 +6948,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="H35" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7025,7 +6977,7 @@
         <v>947</v>
       </c>
       <c r="H36" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7045,13 +6997,13 @@
         <v>1276</v>
       </c>
       <c r="F37" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G37" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="H37" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7071,13 +7023,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G38" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="H38" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7097,13 +7049,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="G39" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="H39" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7123,13 +7075,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="G40" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="H40" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7149,13 +7101,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G41" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
       <c r="H41" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7175,13 +7127,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1364</v>
+        <v>1340</v>
       </c>
       <c r="G42" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="H42" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7201,13 +7153,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="G43" t="s">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="H43" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7227,13 +7179,13 @@
         <v>1285</v>
       </c>
       <c r="F44" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G44" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H44" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7253,13 +7205,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1366</v>
+        <v>1338</v>
       </c>
       <c r="G45" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="H45" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7279,13 +7231,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G46" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="H46" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7305,13 +7257,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1367</v>
+        <v>1341</v>
       </c>
       <c r="G47" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="H47" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7331,13 +7283,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G48" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="H48" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7357,13 +7309,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G49" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="H49" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7389,7 +7341,7 @@
         <v>1046</v>
       </c>
       <c r="H50" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7409,13 +7361,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G51" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="H51" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7435,13 +7387,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1370</v>
+        <v>1346</v>
       </c>
       <c r="G52" t="s">
-        <v>1555</v>
+        <v>1539</v>
       </c>
       <c r="H52" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7461,13 +7413,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G53" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H53" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7487,13 +7439,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G54" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="H54" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7513,13 +7465,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="G55" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="H55" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7539,13 +7491,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="G56" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="H56" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7565,13 +7517,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="G57" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="H57" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7591,13 +7543,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="G58" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="H58" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7617,13 +7569,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="G59" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="H59" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7649,7 +7601,7 @@
         <v>983</v>
       </c>
       <c r="H60" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7669,13 +7621,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G61" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="H61" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7695,13 +7647,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="H62" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7721,13 +7673,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="G63" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="H63" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7750,10 +7702,10 @@
         <v>1346</v>
       </c>
       <c r="G64" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="H64" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7776,10 +7728,10 @@
         <v>1349</v>
       </c>
       <c r="G65" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="H65" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7799,13 +7751,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="G66" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="H66" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7825,13 +7777,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1378</v>
+        <v>1341</v>
       </c>
       <c r="G67" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="H67" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7857,7 +7809,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7877,13 +7829,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="G69" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="H69" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7903,13 +7855,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="H70" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7929,13 +7881,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1378</v>
+        <v>1341</v>
       </c>
       <c r="G71" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="H71" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7955,13 +7907,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G72" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="H72" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7981,13 +7933,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="G73" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="H73" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8007,13 +7959,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="G74" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="H74" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8039,7 +7991,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8062,10 +8014,10 @@
         <v>1337</v>
       </c>
       <c r="G76" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="H76" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8088,10 +8040,10 @@
         <v>1346</v>
       </c>
       <c r="G77" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="H77" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8111,13 +8063,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G78" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="H78" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8137,13 +8089,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G79" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="H79" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8163,13 +8115,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1382</v>
+        <v>1338</v>
       </c>
       <c r="G80" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="H80" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8189,13 +8141,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G81" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H81" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8215,13 +8167,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="G82" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="H82" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8247,7 +8199,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8267,13 +8219,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1384</v>
+        <v>1340</v>
       </c>
       <c r="G84" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="H84" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8293,13 +8245,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1384</v>
+        <v>1346</v>
       </c>
       <c r="G85" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="H85" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8322,10 +8274,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="H86" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8345,13 +8297,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G87" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="H87" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8371,13 +8323,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G88" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="H88" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8397,13 +8349,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H89" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8423,13 +8375,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1352</v>
+        <v>1375</v>
       </c>
       <c r="G90" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="H90" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8449,13 +8401,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="G91" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="H91" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8475,13 +8427,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1385</v>
+        <v>1339</v>
       </c>
       <c r="G92" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="H92" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8501,13 +8453,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="G93" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="H93" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8530,10 +8482,10 @@
         <v>1346</v>
       </c>
       <c r="G94" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="H94" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8553,13 +8505,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="G95" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="H95" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8579,13 +8531,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G96" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="H96" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8608,10 +8560,10 @@
         <v>1278</v>
       </c>
       <c r="G97" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="H97" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8634,10 +8586,10 @@
         <v>1285</v>
       </c>
       <c r="G98" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="H98" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8657,13 +8609,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="G99" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="H99" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8683,13 +8635,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="G100" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="H100" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8709,13 +8661,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="H101" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8735,13 +8687,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G102" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="H102" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8761,13 +8713,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="G103" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="H103" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8787,13 +8739,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1370</v>
+        <v>1346</v>
       </c>
       <c r="G104" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="H104" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8819,7 +8771,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8839,13 +8791,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G106" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="H106" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8865,13 +8817,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G107" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="H107" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8891,13 +8843,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="G108" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="H108" t="s">
-        <v>1889</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8917,13 +8869,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="H109" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8943,13 +8895,13 @@
         <v>1276</v>
       </c>
       <c r="F110" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="H110" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8969,13 +8921,13 @@
         <v>1278</v>
       </c>
       <c r="F111" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G111" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="H111" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8995,13 +8947,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1370</v>
+        <v>1346</v>
       </c>
       <c r="G112" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="H112" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -9021,13 +8973,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="G113" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="H113" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -9053,7 +9005,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9073,13 +9025,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="G115" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="H115" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9099,13 +9051,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="G116" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="H116" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9125,13 +9077,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1395</v>
+        <v>1338</v>
       </c>
       <c r="G117" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="H117" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9151,13 +9103,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="G118" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="H118" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9177,13 +9129,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="G119" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
       <c r="H119" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9203,13 +9155,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G120" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H120" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9229,13 +9181,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G121" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="H121" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9258,10 +9210,10 @@
         <v>1343</v>
       </c>
       <c r="G122" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="H122" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9287,7 +9239,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9307,13 +9259,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="G124" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="H124" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9333,13 +9285,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G125" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="H125" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9359,13 +9311,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G126" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="H126" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9385,13 +9337,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G127" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="H127" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9411,13 +9363,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1349</v>
+        <v>1368</v>
       </c>
       <c r="G128" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="H128" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9437,13 +9389,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1398</v>
+        <v>1362</v>
       </c>
       <c r="G129" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="H129" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9463,13 +9415,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1399</v>
+        <v>1362</v>
       </c>
       <c r="G130" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="H130" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9489,13 +9441,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="G131" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="H131" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9515,13 +9467,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1401</v>
+        <v>1339</v>
       </c>
       <c r="G132" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="H132" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9541,13 +9493,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
       <c r="G133" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="H133" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9570,10 +9522,10 @@
         <v>1285</v>
       </c>
       <c r="G134" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H134" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9593,13 +9545,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="G135" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="H135" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9625,7 +9577,7 @@
         <v>1046</v>
       </c>
       <c r="H136" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9645,13 +9597,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1404</v>
+        <v>1338</v>
       </c>
       <c r="G137" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="H137" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9671,13 +9623,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G138" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="H138" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9697,13 +9649,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="G139" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="H139" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9723,13 +9675,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="G140" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="H140" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9755,7 +9707,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9778,10 +9730,10 @@
         <v>1276</v>
       </c>
       <c r="G142" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="H142" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9801,13 +9753,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="G143" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="H143" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9827,13 +9779,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="G144" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="H144" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9853,13 +9805,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G145" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="H145" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9879,13 +9831,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="G146" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="H146" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9911,7 +9863,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9931,13 +9883,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="H148" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9960,10 +9912,10 @@
         <v>1278</v>
       </c>
       <c r="G149" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="H149" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9983,13 +9935,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="G150" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="H150" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -10009,13 +9961,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="G151" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="H151" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -10035,13 +9987,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1378</v>
+        <v>1341</v>
       </c>
       <c r="G152" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="H152" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -10061,13 +10013,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="G153" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="H153" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -10087,13 +10039,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1413</v>
+        <v>1362</v>
       </c>
       <c r="G154" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="H154" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -10113,13 +10065,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G155" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="H155" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -10139,13 +10091,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="G156" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="H156" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10165,13 +10117,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="G157" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="H157" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10191,13 +10143,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="G158" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="H158" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10217,13 +10169,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1414</v>
+        <v>1381</v>
       </c>
       <c r="G159" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="H159" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10243,13 +10195,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="G160" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="H160" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10275,7 +10227,7 @@
         <v>1032</v>
       </c>
       <c r="H161" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10295,13 +10247,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1359</v>
+        <v>1402</v>
       </c>
       <c r="G162" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="H162" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10327,7 +10279,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10347,13 +10299,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G164" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="H164" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10373,13 +10325,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="G165" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="H165" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10402,10 +10354,10 @@
         <v>1337</v>
       </c>
       <c r="G166" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="H166" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10425,13 +10377,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1379</v>
+        <v>1404</v>
       </c>
       <c r="G167" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="H167" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10451,13 +10403,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="G168" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="H168" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10483,7 +10435,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10503,13 +10455,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="G170" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="H170" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10529,13 +10481,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1418</v>
+        <v>1338</v>
       </c>
       <c r="G171" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="H171" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10555,13 +10507,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1419</v>
+        <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="H172" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10581,13 +10533,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1420</v>
+        <v>1338</v>
       </c>
       <c r="G173" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="H173" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10610,10 +10562,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="H174" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10633,13 +10585,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
       <c r="G175" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="H175" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10659,13 +10611,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1422</v>
+        <v>1349</v>
       </c>
       <c r="G176" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="H176" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10685,13 +10637,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1423</v>
+        <v>1400</v>
       </c>
       <c r="G177" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="H177" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10711,13 +10663,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
       <c r="G178" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="H178" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10737,13 +10689,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1425</v>
+        <v>1352</v>
       </c>
       <c r="G179" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="H179" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10763,13 +10715,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1359</v>
+        <v>1402</v>
       </c>
       <c r="G180" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="H180" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10789,13 +10741,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1426</v>
+        <v>1361</v>
       </c>
       <c r="G181" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="H181" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10815,13 +10767,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G182" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="H182" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10844,10 +10796,10 @@
         <v>1346</v>
       </c>
       <c r="G183" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="H183" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10867,13 +10819,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G184" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="H184" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10893,13 +10845,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1427</v>
+        <v>1408</v>
       </c>
       <c r="G185" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="H185" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10925,7 +10877,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10945,13 +10897,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G187" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="H187" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10971,13 +10923,13 @@
         <v>1277</v>
       </c>
       <c r="F188" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G188" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="H188" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10997,13 +10949,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1428</v>
+        <v>1409</v>
       </c>
       <c r="G189" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="H189" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -11023,13 +10975,13 @@
         <v>1278</v>
       </c>
       <c r="F190" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G190" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="H190" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -11049,13 +11001,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="G191" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="H191" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -11075,13 +11027,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1380</v>
+        <v>1409</v>
       </c>
       <c r="G192" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="H192" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11101,13 +11053,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1430</v>
+        <v>1410</v>
       </c>
       <c r="G193" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="H193" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11130,10 +11082,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="H194" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -11153,13 +11105,13 @@
         <v>1285</v>
       </c>
       <c r="F195" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G195" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H195" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11179,13 +11131,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G196" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="H196" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11211,7 +11163,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11231,7 +11183,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11251,13 +11203,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1364</v>
+        <v>1346</v>
       </c>
       <c r="G199" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="H199" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11277,13 +11229,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1359</v>
+        <v>1402</v>
       </c>
       <c r="G200" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="H200" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11306,10 +11258,10 @@
         <v>1337</v>
       </c>
       <c r="G201" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="H201" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11329,13 +11281,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="G202" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="H202" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11355,13 +11307,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1431</v>
+        <v>1412</v>
       </c>
       <c r="G203" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="H203" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11381,13 +11333,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1432</v>
+        <v>1413</v>
       </c>
       <c r="G204" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="H204" t="s">
-        <v>1889</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11407,13 +11359,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1433</v>
+        <v>1414</v>
       </c>
       <c r="G205" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="H205" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11433,13 +11385,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1434</v>
+        <v>1415</v>
       </c>
       <c r="G206" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="H206" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11459,13 +11411,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1435</v>
+        <v>1416</v>
       </c>
       <c r="G207" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="H207" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11485,13 +11437,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1436</v>
+        <v>1404</v>
       </c>
       <c r="G208" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="H208" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11511,13 +11463,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="G209" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="H209" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11540,10 +11492,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="H210" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11563,13 +11515,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="G211" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="H211" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11589,13 +11541,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1438</v>
+        <v>1357</v>
       </c>
       <c r="G212" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="H212" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11618,10 +11570,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="H213" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11641,13 +11593,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1439</v>
+        <v>1386</v>
       </c>
       <c r="G214" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="H214" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11670,10 +11622,10 @@
         <v>1278</v>
       </c>
       <c r="G215" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="H215" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11693,13 +11645,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1440</v>
+        <v>1418</v>
       </c>
       <c r="G216" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="H216" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11722,10 +11674,10 @@
         <v>1343</v>
       </c>
       <c r="G217" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="H217" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11745,13 +11697,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1441</v>
+        <v>1419</v>
       </c>
       <c r="G218" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="H218" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11771,13 +11723,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G219" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="H219" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11797,13 +11749,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G220" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="H220" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11826,10 +11778,10 @@
         <v>1343</v>
       </c>
       <c r="G221" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="H221" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11855,7 +11807,7 @@
         <v>947</v>
       </c>
       <c r="H222" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11875,13 +11827,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
       <c r="G223" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="H223" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11901,13 +11853,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1443</v>
+        <v>1421</v>
       </c>
       <c r="G224" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="H224" t="s">
-        <v>1895</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11930,10 +11882,10 @@
         <v>1337</v>
       </c>
       <c r="G225" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="H225" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11953,7 +11905,7 @@
         <v>1276</v>
       </c>
       <c r="H226" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11979,7 +11931,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11999,13 +11951,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="G228" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="H228" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -12025,13 +11977,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="G229" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="H229" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -12051,13 +12003,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="G230" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="H230" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -12083,7 +12035,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12103,13 +12055,13 @@
         <v>1276</v>
       </c>
       <c r="F232" t="s">
-        <v>1276</v>
+        <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="H232" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12129,13 +12081,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="G233" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="H233" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12155,13 +12107,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="G234" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="H234" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12181,13 +12133,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1380</v>
+        <v>1409</v>
       </c>
       <c r="G235" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="H235" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12207,13 +12159,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1447</v>
+        <v>1425</v>
       </c>
       <c r="G236" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="H236" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12236,10 +12188,10 @@
         <v>1285</v>
       </c>
       <c r="G237" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="H237" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12259,13 +12211,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="G238" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="H238" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12285,13 +12237,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1415</v>
+        <v>1338</v>
       </c>
       <c r="G239" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="H239" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12311,13 +12263,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="G240" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
       <c r="H240" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12340,10 +12292,10 @@
         <v>1337</v>
       </c>
       <c r="G241" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
       <c r="H241" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12363,13 +12315,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G242" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="H242" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12389,13 +12341,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G243" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="H243" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12415,13 +12367,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G244" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H244" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12441,13 +12393,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1380</v>
+        <v>1428</v>
       </c>
       <c r="G245" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="H245" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12473,7 +12425,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12493,13 +12445,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="G247" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
       <c r="H247" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12519,13 +12471,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="G248" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="H248" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12545,13 +12497,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="G249" t="s">
-        <v>1719</v>
+        <v>1703</v>
       </c>
       <c r="H249" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12571,13 +12523,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="G250" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="H250" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12600,10 +12552,10 @@
         <v>1343</v>
       </c>
       <c r="G251" t="s">
-        <v>1721</v>
+        <v>1705</v>
       </c>
       <c r="H251" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12626,10 +12578,10 @@
         <v>1285</v>
       </c>
       <c r="G252" t="s">
-        <v>1722</v>
+        <v>1706</v>
       </c>
       <c r="H252" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12655,7 +12607,7 @@
         <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12681,7 +12633,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12701,13 +12653,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1421</v>
+        <v>1346</v>
       </c>
       <c r="G255" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="H255" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12727,13 +12679,13 @@
         <v>1279</v>
       </c>
       <c r="F256" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="G256" t="s">
-        <v>1724</v>
+        <v>1708</v>
       </c>
       <c r="H256" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12753,13 +12705,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1454</v>
+        <v>1346</v>
       </c>
       <c r="G257" t="s">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="H257" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12779,13 +12731,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1455</v>
+        <v>1433</v>
       </c>
       <c r="G258" t="s">
-        <v>1726</v>
+        <v>1710</v>
       </c>
       <c r="H258" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12811,7 +12763,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12831,13 +12783,13 @@
         <v>1279</v>
       </c>
       <c r="F260" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="G260" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="H260" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12857,13 +12809,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1456</v>
+        <v>1434</v>
       </c>
       <c r="G261" t="s">
-        <v>1727</v>
+        <v>1711</v>
       </c>
       <c r="H261" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12883,13 +12835,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G262" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H262" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12909,13 +12861,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G263" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H263" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12938,10 +12890,10 @@
         <v>1285</v>
       </c>
       <c r="G264" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="H264" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12961,13 +12913,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1457</v>
+        <v>1435</v>
       </c>
       <c r="G265" t="s">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="H265" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12987,13 +12939,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="G266" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="H266" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -13013,13 +12965,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1458</v>
+        <v>1436</v>
       </c>
       <c r="G267" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
       <c r="H267" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -13039,13 +12991,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1459</v>
+        <v>1437</v>
       </c>
       <c r="G268" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
       <c r="H268" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -13065,13 +13017,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="G269" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="H269" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -13091,13 +13043,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1341</v>
+        <v>1439</v>
       </c>
       <c r="G270" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
       <c r="H270" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13117,13 +13069,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1445</v>
+        <v>1341</v>
       </c>
       <c r="G271" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="H271" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -13143,13 +13095,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1461</v>
+        <v>1404</v>
       </c>
       <c r="G272" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
       <c r="H272" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13169,13 +13121,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1446</v>
+        <v>1427</v>
       </c>
       <c r="G273" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="H273" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13195,13 +13147,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1361</v>
+        <v>1440</v>
       </c>
       <c r="G274" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
       <c r="H274" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13221,13 +13173,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="G275" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="H275" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13250,10 +13202,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="H276" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13273,13 +13225,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="G277" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
       <c r="H277" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13299,13 +13251,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="G278" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
       <c r="H278" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13325,13 +13277,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="G279" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
       <c r="H279" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13351,13 +13303,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1422</v>
+        <v>1344</v>
       </c>
       <c r="G280" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
       <c r="H280" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13377,13 +13329,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G281" t="s">
         <v>1022</v>
       </c>
       <c r="H281" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13403,13 +13355,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1361</v>
+        <v>1445</v>
       </c>
       <c r="G282" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
       <c r="H282" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13429,13 +13381,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G283" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="H283" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13455,13 +13407,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="G284" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
       <c r="H284" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13481,13 +13433,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1467</v>
+        <v>1400</v>
       </c>
       <c r="G285" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="H285" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13507,13 +13459,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1376</v>
+        <v>1447</v>
       </c>
       <c r="G286" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="H286" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13533,13 +13485,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1339</v>
+        <v>1403</v>
       </c>
       <c r="G287" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="H287" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13565,7 +13517,7 @@
         <v>983</v>
       </c>
       <c r="H288" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13585,13 +13537,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1468</v>
+        <v>1448</v>
       </c>
       <c r="G289" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="H289" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13611,13 +13563,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="G290" t="s">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="H290" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13640,10 +13592,10 @@
         <v>1285</v>
       </c>
       <c r="G291" t="s">
-        <v>1751</v>
+        <v>1735</v>
       </c>
       <c r="H291" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13663,13 +13615,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="G292" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="H292" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13689,13 +13641,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="G293" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
       <c r="H293" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13721,7 +13673,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13747,7 +13699,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13767,13 +13719,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1349</v>
+        <v>1368</v>
       </c>
       <c r="G296" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="H296" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13796,10 +13748,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="H297" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13819,13 +13771,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1469</v>
+        <v>1401</v>
       </c>
       <c r="G298" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="H298" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13851,7 +13803,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13877,7 +13829,7 @@
         <v>951</v>
       </c>
       <c r="H300" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13897,13 +13849,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G301" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="H301" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13923,13 +13875,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G302" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="H302" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13949,13 +13901,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1470</v>
+        <v>1386</v>
       </c>
       <c r="G303" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="H303" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13975,13 +13927,13 @@
         <v>1322</v>
       </c>
       <c r="F304" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="G304" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="H304" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -14001,13 +13953,13 @@
         <v>1279</v>
       </c>
       <c r="F305" t="s">
-        <v>1471</v>
+        <v>1449</v>
       </c>
       <c r="G305" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="H305" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -14027,13 +13979,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1422</v>
+        <v>1350</v>
       </c>
       <c r="G306" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="H306" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -14059,7 +14011,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -14079,13 +14031,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G308" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="H308" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -14111,7 +14063,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -14137,7 +14089,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -14157,13 +14109,13 @@
         <v>1285</v>
       </c>
       <c r="F311" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G311" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H311" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14183,13 +14135,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="G312" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="H312" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14215,7 +14167,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14241,7 +14193,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14261,13 +14213,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1473</v>
+        <v>1451</v>
       </c>
       <c r="G315" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="H315" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14287,13 +14239,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G316" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="H316" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14316,10 +14268,10 @@
         <v>1349</v>
       </c>
       <c r="G317" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="H317" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14339,13 +14291,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="G318" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="H318" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14371,7 +14323,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14391,13 +14343,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="G320" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="H320" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14417,13 +14369,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="G321" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="H321" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14443,13 +14395,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G322" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H322" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14472,10 +14424,10 @@
         <v>1285</v>
       </c>
       <c r="G323" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="H323" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14495,13 +14447,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G324" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="H324" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14527,7 +14479,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14547,13 +14499,13 @@
         <v>1285</v>
       </c>
       <c r="F326" t="s">
-        <v>1378</v>
+        <v>1337</v>
       </c>
       <c r="G326" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="H326" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14573,13 +14525,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
       <c r="G327" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="H327" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14599,13 +14551,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1378</v>
+        <v>1337</v>
       </c>
       <c r="G328" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="H328" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14625,13 +14577,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="G329" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="H329" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14651,13 +14603,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="G330" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="H330" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14677,13 +14629,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1477</v>
+        <v>1455</v>
       </c>
       <c r="G331" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="H331" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14703,13 +14655,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G332" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H332" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14729,13 +14681,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1478</v>
+        <v>1456</v>
       </c>
       <c r="G333" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="H333" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14755,13 +14707,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1346</v>
+        <v>1401</v>
       </c>
       <c r="G334" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="H334" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14781,13 +14733,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1355</v>
+        <v>1457</v>
       </c>
       <c r="G335" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="H335" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14810,10 +14762,10 @@
         <v>1337</v>
       </c>
       <c r="G336" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="H336" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14833,13 +14785,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="G337" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="H337" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14859,13 +14811,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1383</v>
+        <v>1424</v>
       </c>
       <c r="G338" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="H338" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14885,13 +14837,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="G339" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="H339" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14911,13 +14863,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="H340" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14937,13 +14889,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1383</v>
+        <v>1460</v>
       </c>
       <c r="G341" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="H341" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14966,10 +14918,10 @@
         <v>1343</v>
       </c>
       <c r="G342" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="H342" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14989,13 +14941,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1479</v>
+        <v>1425</v>
       </c>
       <c r="G343" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="H343" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -15015,13 +14967,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="G344" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="H344" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -15041,13 +14993,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1469</v>
+        <v>1402</v>
       </c>
       <c r="G345" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="H345" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -15067,13 +15019,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="G346" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="H346" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -15099,7 +15051,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -15125,7 +15077,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -15151,7 +15103,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15171,13 +15123,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G350" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="H350" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15197,13 +15149,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="G351" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="H351" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15223,13 +15175,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="G352" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="H352" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15249,13 +15201,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G353" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H353" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15275,13 +15227,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G354" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="H354" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15304,10 +15256,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="H355" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15333,7 +15285,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15353,13 +15305,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="G357" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="H357" t="s">
-        <v>1898</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15379,13 +15331,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G358" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="H358" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15405,13 +15357,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="G359" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="H359" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15431,13 +15383,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G360" t="s">
         <v>1199</v>
       </c>
       <c r="H360" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15457,13 +15409,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G361" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="H361" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15483,13 +15435,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1384</v>
+        <v>1346</v>
       </c>
       <c r="G362" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="H362" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15509,13 +15461,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="G363" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="H363" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15535,13 +15487,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1454</v>
+        <v>1370</v>
       </c>
       <c r="G364" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="H364" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15561,13 +15513,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="G365" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="H365" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15590,10 +15542,10 @@
         <v>1337</v>
       </c>
       <c r="G366" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="H366" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15613,13 +15565,13 @@
         <v>1279</v>
       </c>
       <c r="F367" t="s">
-        <v>1454</v>
+        <v>1346</v>
       </c>
       <c r="G367" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="H367" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15642,10 +15594,10 @@
         <v>1337</v>
       </c>
       <c r="G368" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="H368" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15665,13 +15617,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1454</v>
+        <v>1340</v>
       </c>
       <c r="G369" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="H369" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15691,7 +15643,7 @@
         <v>1285</v>
       </c>
       <c r="H370" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15711,13 +15663,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="G371" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="H371" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15737,13 +15689,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1414</v>
+        <v>1361</v>
       </c>
       <c r="G372" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="H372" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15763,13 +15715,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1378</v>
+        <v>1341</v>
       </c>
       <c r="G373" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="H373" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15789,7 +15741,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15815,7 +15767,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15835,13 +15787,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1488</v>
+        <v>1468</v>
       </c>
       <c r="G376" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="H376" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15861,13 +15813,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1489</v>
+        <v>1469</v>
       </c>
       <c r="G377" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="H377" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15890,10 +15842,10 @@
         <v>1278</v>
       </c>
       <c r="G378" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="H378" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15913,13 +15865,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="G379" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="H379" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15945,7 +15897,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15965,13 +15917,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G381" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="H381" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15991,13 +15943,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1491</v>
+        <v>1471</v>
       </c>
       <c r="G382" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
       <c r="H382" t="s">
-        <v>1900</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -16017,13 +15969,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="G383" t="s">
-        <v>1810</v>
+        <v>1794</v>
       </c>
       <c r="H383" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -16043,13 +15995,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
       <c r="G384" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
       <c r="H384" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -16069,13 +16021,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G385" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="H385" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -16095,13 +16047,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="G386" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="H386" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16121,13 +16073,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G387" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
       <c r="H387" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -16153,7 +16105,7 @@
         <v>1089</v>
       </c>
       <c r="H388" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16176,10 +16128,10 @@
         <v>1337</v>
       </c>
       <c r="G389" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="H389" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16199,13 +16151,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="G390" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="H390" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16225,13 +16177,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="G391" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="H391" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16254,10 +16206,10 @@
         <v>1337</v>
       </c>
       <c r="G392" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
       <c r="H392" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16277,13 +16229,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1474</v>
+        <v>1379</v>
       </c>
       <c r="G393" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
       <c r="H393" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16303,13 +16255,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1456</v>
+        <v>1401</v>
       </c>
       <c r="G394" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
       <c r="H394" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16329,13 +16281,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G395" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="H395" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16358,10 +16310,10 @@
         <v>1337</v>
       </c>
       <c r="G396" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="H396" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16381,13 +16333,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1339</v>
+        <v>1403</v>
       </c>
       <c r="G397" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="H397" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16413,7 +16365,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16433,13 +16385,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="G399" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="H399" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16459,13 +16411,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G400" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
       <c r="H400" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16485,13 +16437,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="G401" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="H401" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16511,13 +16463,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1455</v>
+        <v>1477</v>
       </c>
       <c r="G402" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="H402" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16537,13 +16489,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G403" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="H403" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16563,13 +16515,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
       <c r="G404" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="H404" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16589,13 +16541,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1359</v>
+        <v>1402</v>
       </c>
       <c r="G405" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="H405" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16615,13 +16567,13 @@
         <v>1285</v>
       </c>
       <c r="F406" t="s">
-        <v>1497</v>
+        <v>1478</v>
       </c>
       <c r="G406" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
       <c r="H406" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16641,13 +16593,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1498</v>
+        <v>1479</v>
       </c>
       <c r="G407" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="H407" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16667,13 +16619,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1414</v>
+        <v>1480</v>
       </c>
       <c r="G408" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="H408" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16693,13 +16645,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G409" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H409" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16725,7 +16677,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16745,13 +16697,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1499</v>
+        <v>1413</v>
       </c>
       <c r="G411" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
       <c r="H411" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16771,13 +16723,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="H412" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16797,13 +16749,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1446</v>
+        <v>1353</v>
       </c>
       <c r="G413" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="H413" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16823,13 +16775,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G414" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="H414" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16849,13 +16801,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1373</v>
+        <v>1481</v>
       </c>
       <c r="G415" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
       <c r="H415" t="s">
-        <v>1902</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16875,13 +16827,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="G416" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="H416" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16901,13 +16853,13 @@
         <v>1285</v>
       </c>
       <c r="F417" t="s">
-        <v>1276</v>
+        <v>1285</v>
       </c>
       <c r="G417" t="s">
         <v>987</v>
       </c>
       <c r="H417" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16927,13 +16879,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1370</v>
+        <v>1346</v>
       </c>
       <c r="G418" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
       <c r="H418" t="s">
-        <v>1889</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16953,13 +16905,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G419" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="H419" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16979,13 +16931,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1500</v>
+        <v>1402</v>
       </c>
       <c r="G420" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
       <c r="H420" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -17005,13 +16957,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="G421" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
       <c r="H421" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -17031,13 +16983,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G422" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="H422" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -17057,13 +17009,13 @@
         <v>1285</v>
       </c>
       <c r="F423" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G423" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="H423" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -17089,7 +17041,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -17112,10 +17064,10 @@
         <v>1337</v>
       </c>
       <c r="G425" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="H425" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -17135,13 +17087,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1501</v>
+        <v>1482</v>
       </c>
       <c r="G426" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
       <c r="H426" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17161,13 +17113,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17187,13 +17139,13 @@
         <v>1279</v>
       </c>
       <c r="F428" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="G428" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="H428" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17216,10 +17168,10 @@
         <v>1278</v>
       </c>
       <c r="G429" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
       <c r="H429" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17239,13 +17191,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G430" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
       <c r="H430" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17268,10 +17220,10 @@
         <v>1337</v>
       </c>
       <c r="G431" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="H431" t="s">
-        <v>1903</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17291,13 +17243,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="G432" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="H432" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17317,13 +17269,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G433" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="H433" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17343,13 +17295,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1502</v>
+        <v>1483</v>
       </c>
       <c r="G434" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="H434" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17369,13 +17321,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1503</v>
+        <v>1341</v>
       </c>
       <c r="G435" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="H435" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17395,13 +17347,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1345</v>
+        <v>1484</v>
       </c>
       <c r="G436" t="s">
-        <v>1846</v>
+        <v>1830</v>
       </c>
       <c r="H436" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17421,7 +17373,7 @@
         <v>1294</v>
       </c>
       <c r="H437" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17447,7 +17399,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17467,13 +17419,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G439" t="s">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="H439" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17493,13 +17445,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="G440" t="s">
-        <v>1848</v>
+        <v>1832</v>
       </c>
       <c r="H440" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17519,13 +17471,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1504</v>
+        <v>1485</v>
       </c>
       <c r="G441" t="s">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="H441" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17545,13 +17497,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="G442" t="s">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="H442" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17571,13 +17523,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G443" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="H443" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17597,13 +17549,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1384</v>
+        <v>1346</v>
       </c>
       <c r="G444" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
       <c r="H444" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17623,13 +17575,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1505</v>
+        <v>1486</v>
       </c>
       <c r="G445" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="H445" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17649,13 +17601,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1436</v>
+        <v>1487</v>
       </c>
       <c r="G446" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="H446" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17675,13 +17627,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G447" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
       <c r="H447" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17701,13 +17653,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="G448" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
       <c r="H448" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17727,13 +17679,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1461</v>
+        <v>1488</v>
       </c>
       <c r="G449" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="H449" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17753,13 +17705,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1404</v>
+        <v>1489</v>
       </c>
       <c r="G450" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="H450" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17779,13 +17731,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="G451" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="H451" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17805,13 +17757,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1436</v>
+        <v>1404</v>
       </c>
       <c r="G452" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
       <c r="H452" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17831,13 +17783,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="G453" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
       <c r="H453" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17857,13 +17809,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="G454" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="H454" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17883,13 +17835,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="G455" t="s">
-        <v>1863</v>
+        <v>1847</v>
       </c>
       <c r="H455" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17909,13 +17861,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="G456" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
       <c r="H456" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17935,13 +17887,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="G457" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
       <c r="H457" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17961,13 +17913,13 @@
         <v>1335</v>
       </c>
       <c r="F458" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="H458" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17987,13 +17939,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="G459" t="s">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="H459" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -18013,13 +17965,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1345</v>
+        <v>1484</v>
       </c>
       <c r="G460" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
       <c r="H460" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -18039,13 +17991,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="G461" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
       <c r="H461" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -18065,13 +18017,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="G462" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H462" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -18091,13 +18043,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1472</v>
+        <v>1346</v>
       </c>
       <c r="G463" t="s">
-        <v>1870</v>
+        <v>1854</v>
       </c>
       <c r="H463" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
   </sheetData>
